--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\rapports et jdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\TPI-astronomie\rapports et jdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C49F2AC-8570-4F74-9B75-76FC3B30F2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -256,17 +257,50 @@
   </si>
   <si>
     <t>Rédaction du dossier de projet et envoi des documents</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint review avec Mme Andolfatto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcd: table à part pour lieu et equipements pour sorties  ? / copie d'écran pour maquette = ok / tests d'acceptation pour login à ajouter (cas d'erreur) / préciser le choix génération unique des données </t>
+  </si>
+  <si>
+    <t>Apparence de la page de login</t>
+  </si>
+  <si>
+    <t>Apparence finale du site déterminée</t>
+  </si>
+  <si>
+    <t>Page de login</t>
+  </si>
+  <si>
+    <t>Gestion des messages d'erreurs à terminer</t>
+  </si>
+  <si>
+    <t>Gestion erreurs login form</t>
+  </si>
+  <si>
+    <t>terminée</t>
+  </si>
+  <si>
+    <t>Extraction données csv</t>
+  </si>
+  <si>
+    <t>à terminer : renommage des fichiers unique / données objets célestes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +320,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
@@ -383,6 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,30 +711,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" customWidth="1"/>
-    <col min="7" max="7" width="85.42578125" customWidth="1"/>
-    <col min="8" max="9" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="61.5546875" customWidth="1"/>
+    <col min="7" max="7" width="85.44140625" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
@@ -702,14 +745,14 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -732,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>44683</v>
       </c>
@@ -756,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="3">
         <v>0.41666666666666669</v>
@@ -778,7 +821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3">
         <v>0.5625</v>
@@ -800,7 +843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="3">
         <v>0.61458333333333337</v>
@@ -822,8 +865,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -831,7 +874,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44684</v>
       </c>
@@ -855,7 +898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3">
         <v>0.375</v>
@@ -877,7 +920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="3">
         <v>0.40972222222222227</v>
@@ -899,7 +942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="3">
         <v>0.4201388888888889</v>
@@ -921,7 +964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="3">
         <v>0.4375</v>
@@ -943,7 +986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="3">
         <v>0.45833333333333331</v>
@@ -965,7 +1008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="3">
         <v>0.48958333333333331</v>
@@ -987,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="3">
         <v>0.5625</v>
@@ -1009,7 +1052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="3">
         <v>0.625</v>
@@ -1031,7 +1074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="3">
         <v>0.63194444444444442</v>
@@ -1053,7 +1096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="3">
         <v>0.63541666666666663</v>
@@ -1075,7 +1118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="3">
         <v>0.64583333333333337</v>
@@ -1097,7 +1140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="3">
         <v>0.66666666666666663</v>
@@ -1119,7 +1162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1128,7 +1171,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>44685</v>
       </c>
@@ -1152,7 +1195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="3">
         <v>0.40972222222222227</v>
@@ -1174,7 +1217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="3">
         <v>0.42708333333333331</v>
@@ -1196,7 +1239,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="3">
         <v>0.44791666666666669</v>
@@ -1218,7 +1261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="3">
         <v>0.5625</v>
@@ -1240,7 +1283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="3">
         <v>0.57291666666666663</v>
@@ -1262,7 +1305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="3">
         <v>0.60416666666666663</v>
@@ -1284,7 +1327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="3">
         <v>0.63888888888888895</v>
@@ -1306,7 +1349,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="3">
         <v>0.66666666666666663</v>
@@ -1328,7 +1371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="3">
         <v>0.69791666666666663</v>
@@ -1348,7 +1391,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1357,7 +1400,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>44686</v>
       </c>
@@ -1381,7 +1424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="3">
         <v>0.40972222222222227</v>
@@ -1401,7 +1444,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="3">
         <v>0.5625</v>
@@ -1423,7 +1466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="3">
         <v>0.61111111111111105</v>
@@ -1443,7 +1486,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="3">
         <v>0.63888888888888895</v>
@@ -1465,7 +1508,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="3">
         <v>0.67708333333333337</v>
@@ -1484,6 +1527,151 @@
         <v>73</v>
       </c>
       <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>44690</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:D43" si="6">C42-B42</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="6"/>
+        <v>4.8611111111111105E-2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44:D45" si="7">C44-B44</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="7"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="B46" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46" si="8">C46-B46</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47" si="9">C47-B47</f>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\TPI-astronomie\rapports et jdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\rapports et jdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C49F2AC-8570-4F74-9B75-76FC3B30F2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -283,24 +282,60 @@
     <t>Gestion erreurs login form</t>
   </si>
   <si>
-    <t>terminée</t>
-  </si>
-  <si>
     <t>Extraction données csv</t>
   </si>
   <si>
     <t>à terminer : renommage des fichiers unique / données objets célestes</t>
+  </si>
+  <si>
+    <t>ajouter les indications de login réussie: login -&gt; logout, menu réservé aux admins</t>
+  </si>
+  <si>
+    <t>Gestion des login</t>
+  </si>
+  <si>
+    <t>Terminée</t>
+  </si>
+  <si>
+    <t>Recherche et ajout d'un logo au header</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Faire des tests plus précis pour la recherche dans la liste</t>
+  </si>
+  <si>
+    <t>Maquette de la page du catalogue Messier</t>
+  </si>
+  <si>
+    <t>Question sur les filtres: recherche textuel sur tous les champs ou champs de recherche pour chaque colonnes / réponse: une barre de recherche pour toutes les colonnes = ok / maquette terminée</t>
+  </si>
+  <si>
+    <t>Recherche sur un moyen d'importer les données</t>
+  </si>
+  <si>
+    <t>Correction d'une erreur sur le MLD</t>
+  </si>
+  <si>
+    <t>note: difficle de changer l'ordre des colonnes dans l'ERD tool de pgAdmin 4 -&gt; chmgnt manuel sur le script SQL</t>
+  </si>
+  <si>
+    <t>Dossier de projet</t>
+  </si>
+  <si>
+    <t>Image générée pour MLD pose problème -&gt; à refaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +361,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -401,31 +443,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,966 +778,1176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="61.5546875" customWidth="1"/>
-    <col min="7" max="7" width="85.44140625" customWidth="1"/>
-    <col min="8" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="14" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>44683</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <f>C5-B5</f>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <f t="shared" ref="D6:D31" si="0">C6-B6</f>
         <v>9.3749999999999944E-2</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8">
         <v>0.5625</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>44684</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>0.375</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="8">
         <v>0.375</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="8">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>1.7361111111111105E-2</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8">
         <v>0.4375</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="9">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="9">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8">
         <v>0.5625</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="8">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="9">
         <f t="shared" si="0"/>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8">
         <v>0.625</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="8">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="9">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="8">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="9">
         <f t="shared" si="0"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="9">
         <f t="shared" si="0"/>
         <v>1.0416666666666741E-2</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="9">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="9">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>44685</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="8">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="9">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="9">
         <f t="shared" si="0"/>
         <v>1.7361111111111049E-2</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="9">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="9">
         <f t="shared" si="0"/>
         <v>6.2499999999999944E-2</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8">
         <v>0.5625</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="8">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="9">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="9">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="8">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="9">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="9">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="8">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="9">
         <f t="shared" ref="D32" si="1">C32-B32</f>
         <v>3.125E-2</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="8">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="9">
         <f t="shared" ref="D33" si="2">C33-B33</f>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>44686</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="9">
         <f t="shared" ref="D35" si="3">C35-B35</f>
         <v>6.5972222222222265E-2</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="9">
         <f t="shared" ref="D36:D39" si="4">C36-B36</f>
         <v>0.10069444444444436</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="8">
         <v>0.5625</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="8">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="9">
         <f t="shared" si="4"/>
         <v>4.8611111111111049E-2</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="8">
         <v>0.61111111111111105</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="8">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="9">
         <f t="shared" si="4"/>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="8">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="9">
         <f t="shared" si="4"/>
         <v>3.819444444444442E-2</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="8">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="9">
         <f t="shared" ref="D40" si="5">C40-B40</f>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>44690</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="8">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="9">
         <f t="shared" ref="D42:D43" si="6">C42-B42</f>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="8">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="9">
         <f t="shared" si="6"/>
         <v>4.8611111111111105E-2</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="8">
         <v>0.5</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="9">
         <f t="shared" ref="D44:D45" si="7">C44-B44</f>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="8">
         <v>0.5</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="9">
         <f t="shared" si="7"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="8">
         <v>0.5625</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="9">
         <f t="shared" ref="D46" si="8">C46-B46</f>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3">
+      <c r="G46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="8">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="9">
         <f t="shared" ref="D47" si="9">C47-B47</f>
         <v>4.513888888888884E-2</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>84</v>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>44691</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" ref="D49" si="10">C49-B49</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="8">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="D50" s="9">
+        <f t="shared" ref="D50" si="11">C50-B50</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" ref="D51" si="12">C51-B51</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" ref="D52" si="13">C52-B52</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" ref="D53:D54" si="14">C53-B53</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="8">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="14"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D55" s="9">
+        <f t="shared" ref="D55" si="15">C55-B55</f>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" ref="D56" si="16">C56-B56</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="8">
+        <v>0.65625</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" ref="D57" si="17">C57-B57</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1679,6 +1956,6 @@
     <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -325,6 +325,42 @@
   </si>
   <si>
     <t>Image générée pour MLD pose problème -&gt; à refaire</t>
+  </si>
+  <si>
+    <t>Màj de la db pour faciliter l'import des données</t>
+  </si>
+  <si>
+    <t>mld à recréer / utilisation de fichier backup au lieu de .sql pour créer la db / type de colonne changé pour celestial_object.right_ascension</t>
+  </si>
+  <si>
+    <t>fichier csv erroné: m45 n'a pas de n° ngc --&gt; son nom commun a été pris --&gt; modif. csv ??</t>
+  </si>
+  <si>
+    <t>Création du script permettant de remplir la table celestiabl_object</t>
+  </si>
+  <si>
+    <t>Téléchargement d'images pour la bdd</t>
+  </si>
+  <si>
+    <t>httrack est trop long --&gt; extension firefox DownThemAll lien: http://www.httrack.com/page/2/fr/index.html</t>
+  </si>
+  <si>
+    <t>Extension Firefox: DownThemAll -&gt; réussite ! Choisir jpg ET png / suite: renommer les images utiles pour le site</t>
+  </si>
+  <si>
+    <t>Création d'un script pour rename le images</t>
+  </si>
+  <si>
+    <t>src: https://stackoverflow.com/questions/40904836/how-to-get-n-files-in-a-directory-order-by-last-modified-date -- https://stackoverflow.com/questions/52152228/how-to-filter-a-list-with-a-list-of-strings-in-powershell -- https://stackoverflow.com/questions/11816218/renaming-files-in-powershell-using-the-folder-name -- https://stackoverflow.com/questions/51818485/increment-variable-in-powershell-from-within-if-statement-within-a-foreach-loop</t>
+  </si>
+  <si>
+    <t>Script créé mais impossible de renommer les images --&gt; à terminer</t>
+  </si>
+  <si>
+    <t>Questions à poser à la cdp dans fichiers /analyse/questions.txt</t>
+  </si>
+  <si>
+    <t>Mise à jour du dossier de projet</t>
   </si>
 </sst>
 </file>
@@ -451,17 +487,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -492,6 +519,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -782,78 +818,78 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="85.42578125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="18.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>44683</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="6">
         <f>C5-B5</f>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -868,14 +904,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <f t="shared" ref="D6:D31" si="0">C6-B6</f>
         <v>9.3749999999999944E-2</v>
       </c>
@@ -890,14 +926,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8">
+      <c r="A7" s="7"/>
+      <c r="B7" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
@@ -912,14 +948,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
@@ -934,25 +970,25 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>44684</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>0.375</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
@@ -967,14 +1003,14 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5">
         <v>0.375</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
@@ -989,14 +1025,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8">
+      <c r="A12" s="7"/>
+      <c r="B12" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -1011,14 +1047,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>1.7361111111111105E-2</v>
       </c>
@@ -1033,14 +1069,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1055,14 +1091,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8">
+      <c r="A15" s="7"/>
+      <c r="B15" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -1077,14 +1113,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1099,14 +1135,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>5.902777777777779E-2</v>
       </c>
@@ -1121,14 +1157,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5">
         <v>0.625</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -1143,14 +1179,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="5">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <f t="shared" si="0"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -1165,14 +1201,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <f t="shared" si="0"/>
         <v>1.0416666666666741E-2</v>
       </c>
@@ -1187,14 +1223,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="6">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
@@ -1209,14 +1245,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -1231,25 +1267,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>44685</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="5">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -1264,14 +1300,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8">
+      <c r="A25" s="7"/>
+      <c r="B25" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="6">
         <f t="shared" si="0"/>
         <v>1.7361111111111049E-2</v>
       </c>
@@ -1286,14 +1322,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8">
+      <c r="A26" s="7"/>
+      <c r="B26" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -1308,14 +1344,14 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>6.2499999999999944E-2</v>
       </c>
@@ -1330,14 +1366,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -1352,14 +1388,14 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -1374,14 +1410,14 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
@@ -1396,14 +1432,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="6">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-2</v>
       </c>
@@ -1418,14 +1454,14 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="5">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="6">
         <f t="shared" ref="D32" si="1">C32-B32</f>
         <v>3.125E-2</v>
       </c>
@@ -1440,14 +1476,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="6">
         <f t="shared" ref="D33" si="2">C33-B33</f>
         <v>6.9444444444445308E-3</v>
       </c>
@@ -1460,25 +1496,25 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="7">
         <v>44686</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="6">
         <f t="shared" ref="D35" si="3">C35-B35</f>
         <v>6.5972222222222265E-2</v>
       </c>
@@ -1493,14 +1529,14 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8">
+      <c r="A36" s="7"/>
+      <c r="B36" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="6">
         <f t="shared" ref="D36:D39" si="4">C36-B36</f>
         <v>0.10069444444444436</v>
       </c>
@@ -1513,14 +1549,14 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8">
+      <c r="A37" s="7"/>
+      <c r="B37" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="6">
         <f t="shared" si="4"/>
         <v>4.8611111111111049E-2</v>
       </c>
@@ -1535,14 +1571,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="8">
+      <c r="A38" s="7"/>
+      <c r="B38" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="6">
         <f t="shared" si="4"/>
         <v>1.736111111111116E-2</v>
       </c>
@@ -1555,14 +1591,14 @@
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="6">
         <f t="shared" si="4"/>
         <v>3.819444444444442E-2</v>
       </c>
@@ -1577,14 +1613,14 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="8">
+      <c r="A40" s="7"/>
+      <c r="B40" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="6">
         <f t="shared" ref="D40" si="5">C40-B40</f>
         <v>2.777777777777779E-2</v>
       </c>
@@ -1597,27 +1633,27 @@
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>44690</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="6">
         <f t="shared" ref="D42:D43" si="6">C42-B42</f>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1632,14 +1668,14 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="8">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="6">
         <f t="shared" si="6"/>
         <v>4.8611111111111105E-2</v>
       </c>
@@ -1654,14 +1690,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="8">
+      <c r="A44" s="7"/>
+      <c r="B44" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="5">
         <v>0.5</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="6">
         <f t="shared" ref="D44:D45" si="7">C44-B44</f>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1676,14 +1712,14 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8">
+      <c r="A45" s="7"/>
+      <c r="B45" s="5">
         <v>0.5</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="6">
         <f t="shared" si="7"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -1698,14 +1734,14 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8">
+      <c r="A46" s="7"/>
+      <c r="B46" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="6">
         <f t="shared" ref="D46" si="8">C46-B46</f>
         <v>2.083333333333337E-2</v>
       </c>
@@ -1720,14 +1756,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="8">
+      <c r="A47" s="7"/>
+      <c r="B47" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="6">
         <f t="shared" ref="D47" si="9">C47-B47</f>
         <v>4.513888888888884E-2</v>
       </c>
@@ -1742,25 +1778,25 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="7">
         <v>44691</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="6">
         <f t="shared" ref="D49" si="10">C49-B49</f>
         <v>3.125E-2</v>
       </c>
@@ -1775,14 +1811,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="8">
+      <c r="A50" s="7"/>
+      <c r="B50" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="5">
         <v>0.375</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="6">
         <f t="shared" ref="D50" si="11">C50-B50</f>
         <v>1.0416666666666685E-2</v>
       </c>
@@ -1797,14 +1833,14 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5">
         <v>0.375</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="6">
         <f t="shared" ref="D51" si="12">C51-B51</f>
         <v>2.430555555555558E-2</v>
       </c>
@@ -1819,14 +1855,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="8">
+      <c r="A52" s="7"/>
+      <c r="B52" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C52" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="6">
         <f t="shared" ref="D52" si="13">C52-B52</f>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -1841,14 +1877,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="8">
+      <c r="A53" s="7"/>
+      <c r="B53" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="6">
         <f t="shared" ref="D53:D54" si="14">C53-B53</f>
         <v>7.291666666666663E-2</v>
       </c>
@@ -1863,14 +1899,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8">
+      <c r="A54" s="7"/>
+      <c r="B54" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="6">
         <f t="shared" si="14"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1885,14 +1921,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="8">
+      <c r="A55" s="7"/>
+      <c r="B55" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="6">
         <f t="shared" ref="D55" si="15">C55-B55</f>
         <v>6.597222222222221E-2</v>
       </c>
@@ -1907,14 +1943,14 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="8">
+      <c r="A56" s="7"/>
+      <c r="B56" s="5">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="5">
         <v>0.65625</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="6">
         <f t="shared" ref="D56" si="16">C56-B56</f>
         <v>1.7361111111111049E-2</v>
       </c>
@@ -1929,14 +1965,14 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="8">
+      <c r="A57" s="7"/>
+      <c r="B57" s="5">
         <v>0.65625</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="6">
         <f t="shared" ref="D57" si="17">C57-B57</f>
         <v>1.041666666666663E-2</v>
       </c>
@@ -1948,6 +1984,169 @@
       </c>
       <c r="G57" s="2" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D59" s="6">
+        <f t="shared" ref="D59" si="18">C59-B59</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D60" s="6">
+        <f t="shared" ref="D60" si="19">C60-B60</f>
+        <v>7.9861111111111049E-2</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" ref="D61" si="20">C61-B61</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" ref="D62" si="21">C62-B62</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D63" s="6">
+        <f t="shared" ref="D63" si="22">C63-B63</f>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D64" s="6">
+        <f t="shared" ref="D64" si="23">C64-B64</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D65" s="6">
+        <f t="shared" ref="D65" si="24">C65-B65</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -361,6 +361,60 @@
   </si>
   <si>
     <t>Mise à jour du dossier de projet</t>
+  </si>
+  <si>
+    <t>autre site que wikipedia utilisé: https://www.messier-objects.com/messier-catalogue/ -- ces images ont des noms qui permetttent de faciliter le renommage</t>
+  </si>
+  <si>
+    <t>Import des images  des éléments de la bdd en local</t>
+  </si>
+  <si>
+    <t>Création d'un script Powershell pour extraire les noms des images dans un csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichiers: get-pictures-cvs.ps1, pictures.csv et images dans /assets -; src: https://docs.microsoft.com/en-us/powershell/module/microsoft.powershell.core/about/about_regular_expressions?view=powershell-7.2 -- https://stackoverflow.com/questions/54882043/powershell-variable-assignment-vs-pipeline -- https://stackoverflow.com/questions/27970441/powershell-string-does-not-contain -- </t>
+  </si>
+  <si>
+    <t>Ajout des données du csv  dans une table temporaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impossible à faire erreur d'encodage </t>
+  </si>
+  <si>
+    <t>Encodage changé mais données qui manque dans le csv --&gt; script à changer</t>
+  </si>
+  <si>
+    <t>Correction du script qui créé le fichier csv pour les images</t>
+  </si>
+  <si>
+    <t>regex erroné a été changé / problème d'encodage</t>
+  </si>
+  <si>
+    <t>Discussion avec la cdp pour questions sur mcd/mld</t>
+  </si>
+  <si>
+    <t>Création de la bdd</t>
+  </si>
+  <si>
+    <t>terminée + fichier backup créé</t>
+  </si>
+  <si>
+    <t>tables temp à ne pas inclure mais mettre dans doc/réalisation -- ok de download les images depuis un autre site</t>
+  </si>
+  <si>
+    <t>Réalisation: import des données de la bdd --&gt; à finir</t>
+  </si>
+  <si>
+    <t>Résultats des tests à rédiger</t>
+  </si>
+  <si>
+    <t>Scripts PowerShell</t>
+  </si>
+  <si>
+    <t>vérification et légères modif. effectuées / src: https://stackoverflow.com/questions/4724290/powershell-run-command-from-scripts-directory</t>
+  </si>
+  <si>
+    <t>partie implémentation à faire lire car bcp d'explications</t>
   </si>
 </sst>
 </file>
@@ -818,10 +872,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2149,6 +2203,257 @@
         <v>107</v>
       </c>
     </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="D67" s="6">
+        <f t="shared" ref="D67" si="25">C67-B67</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D68" s="6">
+        <f t="shared" ref="D68:D69" si="26">C68-B68</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="26"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" ref="D70" si="27">C70-B70</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D71" s="6">
+        <f t="shared" ref="D71" si="28">C71-B71</f>
+        <v>5.902777777777779E-2</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D72" s="6">
+        <f t="shared" ref="D72" si="29">C72-B72</f>
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D73" s="6">
+        <f t="shared" ref="D73" si="30">C73-B73</f>
+        <v>1.7361111111111105E-2</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D74" s="6">
+        <f t="shared" ref="D74" si="31">C74-B74</f>
+        <v>-6.9444444444444198E-3</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D75" s="6">
+        <f t="shared" ref="D75" si="32">C75-B75</f>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="D76" s="6">
+        <f t="shared" ref="D76" si="33">C76-B76</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D77" s="6">
+        <f t="shared" ref="D77" si="34">C77-B77</f>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\rapports et jdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\TPI-astronomie\rapports et jdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDEC010-26FD-4B95-A563-A22C5AF9E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="137">
   <si>
     <t>Date</t>
   </si>
@@ -351,9 +352,6 @@
     <t>Création d'un script pour rename le images</t>
   </si>
   <si>
-    <t>src: https://stackoverflow.com/questions/40904836/how-to-get-n-files-in-a-directory-order-by-last-modified-date -- https://stackoverflow.com/questions/52152228/how-to-filter-a-list-with-a-list-of-strings-in-powershell -- https://stackoverflow.com/questions/11816218/renaming-files-in-powershell-using-the-folder-name -- https://stackoverflow.com/questions/51818485/increment-variable-in-powershell-from-within-if-statement-within-a-foreach-loop</t>
-  </si>
-  <si>
     <t>Script créé mais impossible de renommer les images --&gt; à terminer</t>
   </si>
   <si>
@@ -372,9 +370,6 @@
     <t>Création d'un script Powershell pour extraire les noms des images dans un csv</t>
   </si>
   <si>
-    <t xml:space="preserve">fichiers: get-pictures-cvs.ps1, pictures.csv et images dans /assets -; src: https://docs.microsoft.com/en-us/powershell/module/microsoft.powershell.core/about/about_regular_expressions?view=powershell-7.2 -- https://stackoverflow.com/questions/54882043/powershell-variable-assignment-vs-pipeline -- https://stackoverflow.com/questions/27970441/powershell-string-does-not-contain -- </t>
-  </si>
-  <si>
     <t>Ajout des données du csv  dans une table temporaire</t>
   </si>
   <si>
@@ -411,16 +406,52 @@
     <t>Scripts PowerShell</t>
   </si>
   <si>
-    <t>vérification et légères modif. effectuées / src: https://stackoverflow.com/questions/4724290/powershell-run-command-from-scripts-directory</t>
-  </si>
-  <si>
     <t>partie implémentation à faire lire car bcp d'explications</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>model: classe celestial_objetcts</t>
+  </si>
+  <si>
+    <t>version papier adresse: Daniel Berney Avenue des sports 20,  1400 Yverdon-les-bains / doc/jdt: mieux de mettre src que dans doc et pas dans jdt</t>
+  </si>
+  <si>
+    <t>meeting avec M. Berney (expert)</t>
+  </si>
+  <si>
+    <t>model: classe celestial_objetcts et celestial_object_mgmt</t>
+  </si>
+  <si>
+    <t>vérification et légères modif. Effectuées</t>
+  </si>
+  <si>
+    <t>Recherche sur internet (voir sources)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fichiers: get-pictures-cvs.ps1, pictures.csv et images dans /assets </t>
+  </si>
+  <si>
+    <t>Ajout de sources</t>
+  </si>
+  <si>
+    <t>Modification des scripts liées qui manipule les données</t>
+  </si>
+  <si>
+    <t>script bat créé</t>
+  </si>
+  <si>
+    <t>model: implémentation de la fonction pour récupérer les données des objets célestes</t>
+  </si>
+  <si>
+    <t>Recherche sur des templates de tableau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm"/>
@@ -868,31 +899,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="85.42578125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="85.44140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="11" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
@@ -903,14 +934,14 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -933,7 +964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44683</v>
       </c>
@@ -957,7 +988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="5">
         <v>0.41666666666666669</v>
@@ -979,7 +1010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="5">
         <v>0.5625</v>
@@ -1001,7 +1032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="5">
         <v>0.61458333333333337</v>
@@ -1023,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1032,7 +1063,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>44684</v>
       </c>
@@ -1056,7 +1087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="5">
         <v>0.375</v>
@@ -1078,7 +1109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="5">
         <v>0.40972222222222227</v>
@@ -1100,7 +1131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="5">
         <v>0.4201388888888889</v>
@@ -1122,7 +1153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="5">
         <v>0.4375</v>
@@ -1144,7 +1175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
@@ -1166,7 +1197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="5">
         <v>0.48958333333333331</v>
@@ -1188,7 +1219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="5">
         <v>0.5625</v>
@@ -1210,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="5">
         <v>0.625</v>
@@ -1232,7 +1263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="5">
         <v>0.63194444444444442</v>
@@ -1254,7 +1285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="5">
         <v>0.63541666666666663</v>
@@ -1276,7 +1307,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="5">
         <v>0.64583333333333337</v>
@@ -1298,7 +1329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="5">
         <v>0.66666666666666663</v>
@@ -1320,7 +1351,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1329,7 +1360,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>44685</v>
       </c>
@@ -1353,7 +1384,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="5">
         <v>0.40972222222222227</v>
@@ -1375,7 +1406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="5">
         <v>0.42708333333333331</v>
@@ -1397,7 +1428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="5">
         <v>0.44791666666666669</v>
@@ -1419,7 +1450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="5">
         <v>0.5625</v>
@@ -1441,7 +1472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="5">
         <v>0.57291666666666663</v>
@@ -1463,7 +1494,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="5">
         <v>0.60416666666666663</v>
@@ -1485,7 +1516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="5">
         <v>0.63888888888888895</v>
@@ -1507,7 +1538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="5">
         <v>0.66666666666666663</v>
@@ -1529,7 +1560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="5">
         <v>0.69791666666666663</v>
@@ -1549,7 +1580,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1558,7 +1589,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>44686</v>
       </c>
@@ -1582,7 +1613,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="5">
         <v>0.40972222222222227</v>
@@ -1602,7 +1633,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="5">
         <v>0.5625</v>
@@ -1624,7 +1655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="5">
         <v>0.61111111111111105</v>
@@ -1644,7 +1675,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="5">
         <v>0.63888888888888895</v>
@@ -1666,7 +1697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="5">
         <v>0.67708333333333337</v>
@@ -1686,7 +1717,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>74</v>
       </c>
@@ -1697,7 +1728,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>44690</v>
       </c>
@@ -1721,7 +1752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="5">
         <v>0.43055555555555558</v>
@@ -1743,7 +1774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="5">
         <v>0.47916666666666669</v>
@@ -1765,7 +1796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="5">
         <v>0.5</v>
@@ -1787,7 +1818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="5">
         <v>0.5625</v>
@@ -1809,7 +1840,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="5">
         <v>0.58333333333333337</v>
@@ -1831,7 +1862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1840,7 +1871,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>44691</v>
       </c>
@@ -1864,7 +1895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="5">
         <v>0.36458333333333331</v>
@@ -1886,7 +1917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="5">
         <v>0.375</v>
@@ -1908,7 +1939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="5">
         <v>0.40972222222222227</v>
@@ -1930,7 +1961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="B53" s="5">
         <v>0.41666666666666669</v>
@@ -1952,7 +1983,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="5">
         <v>0.48958333333333331</v>
@@ -1974,7 +2005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="B55" s="5">
         <v>0.5625</v>
@@ -1996,7 +2027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="5">
         <v>0.63888888888888895</v>
@@ -2018,7 +2049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
       <c r="B57" s="5">
         <v>0.65625</v>
@@ -2040,7 +2071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2049,8 +2080,10 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>44692</v>
+      </c>
       <c r="B59" s="5">
         <v>0.35416666666666669</v>
       </c>
@@ -2071,7 +2104,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="5">
         <v>0.40972222222222227</v>
@@ -2093,7 +2126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
       <c r="B61" s="5">
         <v>0.53125</v>
@@ -2115,7 +2148,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="5">
         <v>0.55208333333333337</v>
@@ -2137,7 +2170,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="5">
         <v>0.5625</v>
@@ -2156,10 +2189,10 @@
         <v>104</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="5">
         <v>0.63888888888888895</v>
@@ -2178,10 +2211,10 @@
         <v>104</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="5">
         <v>0.67708333333333337</v>
@@ -2197,13 +2230,13 @@
         <v>18</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="12"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2212,8 +2245,10 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>44693</v>
+      </c>
       <c r="B67" s="5">
         <v>0.33333333333333331</v>
       </c>
@@ -2228,13 +2263,13 @@
         <v>60</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="5">
         <v>0.34375</v>
@@ -2250,13 +2285,13 @@
         <v>60</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="5">
         <v>0.38541666666666669</v>
@@ -2272,13 +2307,13 @@
         <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
       <c r="B70" s="5">
         <v>0.40972222222222227</v>
@@ -2294,13 +2329,13 @@
         <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
       <c r="B71" s="5">
         <v>0.4201388888888889</v>
@@ -2316,13 +2351,13 @@
         <v>60</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
       <c r="B72" s="5">
         <v>0.47916666666666669</v>
@@ -2338,13 +2373,13 @@
         <v>10</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="7"/>
       <c r="B73" s="5">
         <v>0.4826388888888889</v>
@@ -2360,13 +2395,13 @@
         <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="5">
         <v>0.51041666666666663</v>
@@ -2385,10 +2420,10 @@
         <v>95</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
       <c r="B75" s="5">
         <v>0.5625</v>
@@ -2407,10 +2442,10 @@
         <v>95</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
       <c r="B76" s="5">
         <v>0.63888888888888895</v>
@@ -2426,13 +2461,13 @@
         <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
       <c r="B77" s="5">
         <v>0.65625</v>
@@ -2451,8 +2486,169 @@
         <v>95</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>44697</v>
+      </c>
+      <c r="B79" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D79" s="6">
+        <f t="shared" ref="D79" si="35">C79-B79</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D80" s="6">
+        <f t="shared" ref="D80" si="36">C80-B80</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>126</v>
       </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D81" s="6">
+        <f t="shared" ref="D81" si="37">C81-B81</f>
+        <v>7.9861111111111049E-2</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D82" s="6">
+        <f t="shared" ref="D82" si="38">C82-B82</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="D83" s="6">
+        <f t="shared" ref="D83" si="39">C83-B83</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" ref="D84:D85" si="40">C84-B84</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D85" s="6">
+        <f t="shared" si="40"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G85" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\TPI-astronomie\rapports et jdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\rapports et jdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDEC010-26FD-4B95-A563-A22C5AF9E986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="147">
   <si>
     <t>Date</t>
   </si>
@@ -446,12 +445,42 @@
   </si>
   <si>
     <t>Recherche sur des templates de tableau</t>
+  </si>
+  <si>
+    <t>page web du catalogue de Messier</t>
+  </si>
+  <si>
+    <t>Sprint review n°2</t>
+  </si>
+  <si>
+    <t>rem: voir fichier /analyse/questions.txt</t>
+  </si>
+  <si>
+    <t>Recherche sur la création de fichier backup de la db</t>
+  </si>
+  <si>
+    <t>Modification de la gestion des exceptions</t>
+  </si>
+  <si>
+    <t>User voit message parlant mtn au lieu de internal error</t>
+  </si>
+  <si>
+    <t>Création d'un fichier de backup et test de drop -&gt; restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commandes noté dans un fichier: </t>
+  </si>
+  <si>
+    <t>Modification du style du tableau</t>
+  </si>
+  <si>
+    <t>le fichier CSS datatables a été téléchargé en local</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd\ mmmm"/>
@@ -899,31 +928,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="85.44140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="3"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
@@ -934,14 +963,14 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -964,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44683</v>
       </c>
@@ -988,7 +1017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="5">
         <v>0.41666666666666669</v>
@@ -1010,7 +1039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="5">
         <v>0.5625</v>
@@ -1032,7 +1061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="5">
         <v>0.61458333333333337</v>
@@ -1054,7 +1083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1063,7 +1092,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>44684</v>
       </c>
@@ -1087,7 +1116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="5">
         <v>0.375</v>
@@ -1109,7 +1138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="5">
         <v>0.40972222222222227</v>
@@ -1131,7 +1160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="5">
         <v>0.4201388888888889</v>
@@ -1153,7 +1182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="5">
         <v>0.4375</v>
@@ -1175,7 +1204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
@@ -1197,7 +1226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5">
         <v>0.48958333333333331</v>
@@ -1219,7 +1248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5">
         <v>0.5625</v>
@@ -1241,7 +1270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="5">
         <v>0.625</v>
@@ -1263,7 +1292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="5">
         <v>0.63194444444444442</v>
@@ -1285,7 +1314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="5">
         <v>0.63541666666666663</v>
@@ -1307,7 +1336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="5">
         <v>0.64583333333333337</v>
@@ -1329,7 +1358,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="5">
         <v>0.66666666666666663</v>
@@ -1351,7 +1380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1360,7 +1389,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>44685</v>
       </c>
@@ -1384,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="5">
         <v>0.40972222222222227</v>
@@ -1406,7 +1435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="5">
         <v>0.42708333333333331</v>
@@ -1428,7 +1457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="5">
         <v>0.44791666666666669</v>
@@ -1450,7 +1479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="5">
         <v>0.5625</v>
@@ -1472,7 +1501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="5">
         <v>0.57291666666666663</v>
@@ -1494,7 +1523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="5">
         <v>0.60416666666666663</v>
@@ -1516,7 +1545,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="5">
         <v>0.63888888888888895</v>
@@ -1538,7 +1567,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="5">
         <v>0.66666666666666663</v>
@@ -1560,7 +1589,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="5">
         <v>0.69791666666666663</v>
@@ -1580,7 +1609,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1589,7 +1618,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>44686</v>
       </c>
@@ -1613,7 +1642,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="5">
         <v>0.40972222222222227</v>
@@ -1633,7 +1662,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="5">
         <v>0.5625</v>
@@ -1655,7 +1684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="5">
         <v>0.61111111111111105</v>
@@ -1675,7 +1704,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="5">
         <v>0.63888888888888895</v>
@@ -1697,7 +1726,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="5">
         <v>0.67708333333333337</v>
@@ -1717,7 +1746,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>74</v>
       </c>
@@ -1728,7 +1757,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>44690</v>
       </c>
@@ -1752,7 +1781,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="5">
         <v>0.43055555555555558</v>
@@ -1774,7 +1803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="5">
         <v>0.47916666666666669</v>
@@ -1796,7 +1825,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="5">
         <v>0.5</v>
@@ -1818,7 +1847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="5">
         <v>0.5625</v>
@@ -1840,7 +1869,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="5">
         <v>0.58333333333333337</v>
@@ -1862,7 +1891,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -1871,7 +1900,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>44691</v>
       </c>
@@ -1895,7 +1924,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="5">
         <v>0.36458333333333331</v>
@@ -1917,7 +1946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="5">
         <v>0.375</v>
@@ -1939,7 +1968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="5">
         <v>0.40972222222222227</v>
@@ -1961,7 +1990,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="5">
         <v>0.41666666666666669</v>
@@ -1983,7 +2012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="5">
         <v>0.48958333333333331</v>
@@ -2005,7 +2034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="5">
         <v>0.5625</v>
@@ -2027,7 +2056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="5">
         <v>0.63888888888888895</v>
@@ -2049,7 +2078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="5">
         <v>0.65625</v>
@@ -2071,7 +2100,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2080,7 +2109,7 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>44692</v>
       </c>
@@ -2104,7 +2133,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="5">
         <v>0.40972222222222227</v>
@@ -2126,7 +2155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="5">
         <v>0.53125</v>
@@ -2148,7 +2177,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="5">
         <v>0.55208333333333337</v>
@@ -2170,7 +2199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="5">
         <v>0.5625</v>
@@ -2192,7 +2221,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="5">
         <v>0.63888888888888895</v>
@@ -2214,7 +2243,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="5">
         <v>0.67708333333333337</v>
@@ -2236,7 +2265,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2245,7 +2274,7 @@
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
-    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>44693</v>
       </c>
@@ -2269,7 +2298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="5">
         <v>0.34375</v>
@@ -2291,7 +2320,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="5">
         <v>0.38541666666666669</v>
@@ -2313,7 +2342,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="5">
         <v>0.40972222222222227</v>
@@ -2335,7 +2364,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="5">
         <v>0.4201388888888889</v>
@@ -2357,7 +2386,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="5">
         <v>0.47916666666666669</v>
@@ -2379,7 +2408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="5">
         <v>0.4826388888888889</v>
@@ -2401,17 +2430,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="5">
         <v>0.51041666666666663</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0.50347222222222221</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" ref="D74" si="31">C74-B74</f>
-        <v>-6.9444444444444198E-3</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>18</v>
@@ -2423,7 +2452,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="5">
         <v>0.5625</v>
@@ -2445,7 +2474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="5">
         <v>0.63888888888888895</v>
@@ -2467,7 +2496,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="5">
         <v>0.65625</v>
@@ -2489,7 +2518,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>124</v>
       </c>
@@ -2500,7 +2529,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>44697</v>
       </c>
@@ -2524,7 +2553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="5">
         <v>0.41666666666666669</v>
@@ -2546,7 +2575,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="5">
         <v>0.43055555555555558</v>
@@ -2568,7 +2597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="5">
         <v>0.5625</v>
@@ -2588,7 +2617,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="5">
         <v>0.57291666666666663</v>
@@ -2610,7 +2639,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="5">
         <v>0.59375</v>
@@ -2630,7 +2659,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="5">
         <v>0.61458333333333337</v>
@@ -2649,6 +2678,163 @@
         <v>136</v>
       </c>
       <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>44698</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" ref="D87" si="41">C87-B87</f>
+        <v>6.5972222222222265E-2</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D88" s="6">
+        <f t="shared" ref="D88" si="42">C88-B88</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D89" s="6">
+        <f t="shared" ref="D89" si="43">C89-B89</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" ref="D90" si="44">C90-B90</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" ref="D91:D93" si="45">C91-B91</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D92" s="6">
+        <f t="shared" si="45"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C93" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" ref="D93" si="46">C93-B93</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Résultat</t>
   </si>
   <si>
-    <t>Réalisé par: Nithujan Jegatheeswaran</t>
-  </si>
-  <si>
     <t>Discussion du cahier des charges avec Mme Andolfatto</t>
   </si>
   <si>
@@ -475,17 +472,108 @@
   </si>
   <si>
     <t>le fichier CSS datatables a été téléchargé en local</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Réalisé pa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Nithujan Jegatheeswaran</t>
+    </r>
+  </si>
+  <si>
+    <t>Temps total (hh:mm):</t>
+  </si>
+  <si>
+    <t>Message d'erreurs plus vague sur la page de login + mise en forme</t>
+  </si>
+  <si>
+    <t>Update du style de la page du catalogue</t>
+  </si>
+  <si>
+    <t>chgmnt dans le fichier css</t>
+  </si>
+  <si>
+    <t>Mise à jour de la planif sur IceScrum</t>
+  </si>
+  <si>
+    <t>Tests écrits et stories terminées marquées done</t>
+  </si>
+  <si>
+    <t>Maquette de la page Nouvelle sortie</t>
+  </si>
+  <si>
+    <t>Maquette créé</t>
+  </si>
+  <si>
+    <t>Création de la classe du formulaire pour les nouvelles sorties</t>
+  </si>
+  <si>
+    <t>à finir: message d'erreurs, validation des champs datetime et time</t>
+  </si>
+  <si>
+    <t>Création de la classe pour les sorties nocturnes</t>
+  </si>
+  <si>
+    <t>Code de la page pour ajouter une nouvelle sortie</t>
+  </si>
+  <si>
+    <t>solution pour les select à rechercher</t>
+  </si>
+  <si>
+    <t>Recerche d'un moyen de bien mettre en forme les éléments html select</t>
+  </si>
+  <si>
+    <t>boostrap-select permet une bonne utilisation des select MAIS nécessite Bootstrap 5</t>
+  </si>
+  <si>
+    <t>Passage de Boostrap 5 à Boostrap 4</t>
+  </si>
+  <si>
+    <t>compliqué car beaucoup de petit chgmnt à faire --&gt; use version beta de boostrap-select</t>
+  </si>
+  <si>
+    <t>Mise en forme de la version beta de bootstrap-select</t>
+  </si>
+  <si>
+    <t>à faire: couleur à changer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="dd\ mmmm"/>
+    <numFmt numFmtId="168" formatCode="[h]:mm"/>
+    <numFmt numFmtId="169" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +608,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -593,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,9 +713,6 @@
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -620,9 +720,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
@@ -634,14 +731,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,10 +1038,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,43 +1059,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="A1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="15">
+        <f>SUM(D5:D200)</f>
+        <v>2.7534722222222223</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1003,97 +1116,97 @@
       <c r="C5" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="16">
         <f>C5-B5</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="C6" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" ref="D6:D31" si="0">C6-B6</f>
+      <c r="D6" s="16">
+        <f t="shared" ref="D6:D69" si="0">C6-B6</f>
         <v>9.3749999999999944E-2</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.5625</v>
       </c>
       <c r="C7" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="5">
         <v>0.61458333333333337</v>
       </c>
       <c r="C8" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>44684</v>
       </c>
       <c r="B10" s="5">
@@ -1102,295 +1215,295 @@
       <c r="C10" s="5">
         <v>0.375</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="16">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="5">
         <v>0.375</v>
       </c>
       <c r="C11" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="16">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.40972222222222227</v>
       </c>
       <c r="C12" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="16">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="5">
         <v>0.4201388888888889</v>
       </c>
       <c r="C13" s="5">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="16">
         <f t="shared" si="0"/>
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.4375</v>
       </c>
       <c r="C14" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="16">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="16">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="5">
         <v>0.48958333333333331</v>
       </c>
       <c r="C16" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="16">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.5625</v>
       </c>
       <c r="C17" s="5">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="16">
         <f t="shared" si="0"/>
         <v>5.902777777777779E-2</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="5">
         <v>0.625</v>
       </c>
       <c r="C18" s="5">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="16">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.63194444444444442</v>
       </c>
       <c r="C19" s="5">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="16">
         <f t="shared" si="0"/>
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.63541666666666663</v>
       </c>
       <c r="C20" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="16">
         <f t="shared" si="0"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="5">
         <v>0.64583333333333337</v>
       </c>
       <c r="C21" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="16">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="C22" s="5">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="16">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>44685</v>
       </c>
       <c r="B24" s="5">
@@ -1399,227 +1512,227 @@
       <c r="C24" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="16">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="5">
         <v>0.40972222222222227</v>
       </c>
       <c r="C25" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="16">
         <f t="shared" si="0"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="5">
         <v>0.42708333333333331</v>
       </c>
       <c r="C26" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="16">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="5">
         <v>0.44791666666666669</v>
       </c>
       <c r="C27" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="16">
         <f t="shared" si="0"/>
         <v>6.2499999999999944E-2</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.5625</v>
       </c>
       <c r="C28" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="16">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="5">
         <v>0.57291666666666663</v>
       </c>
       <c r="C29" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="16">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.60416666666666663</v>
       </c>
       <c r="C30" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="16">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="5">
         <v>0.63888888888888895</v>
       </c>
       <c r="C31" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="16">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-2</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.66666666666666663</v>
       </c>
       <c r="C32" s="5">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D32" s="6">
-        <f t="shared" ref="D32" si="1">C32-B32</f>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="5">
         <v>0.69791666666666663</v>
       </c>
       <c r="C33" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D33" s="6">
-        <f t="shared" ref="D33" si="2">C33-B33</f>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>44686</v>
       </c>
       <c r="B35" s="5">
@@ -1628,137 +1741,137 @@
       <c r="C35" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D35" s="6">
-        <f t="shared" ref="D35" si="3">C35-B35</f>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.40972222222222227</v>
       </c>
       <c r="C36" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" ref="D36:D39" si="4">C36-B36</f>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
         <v>0.10069444444444436</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="5">
         <v>0.5625</v>
       </c>
       <c r="C37" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D37" s="6">
-        <f t="shared" si="4"/>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="5">
         <v>0.61111111111111105</v>
       </c>
       <c r="C38" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D38" s="6">
-        <f t="shared" si="4"/>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="5">
         <v>0.63888888888888895</v>
       </c>
       <c r="C39" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D39" s="6">
-        <f t="shared" si="4"/>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
         <v>3.819444444444442E-2</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.67708333333333337</v>
       </c>
       <c r="C40" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D40" s="6">
-        <f t="shared" ref="D40" si="5">C40-B40</f>
+      <c r="D40" s="16">
+        <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>44690</v>
       </c>
       <c r="B42" s="5">
@@ -1767,141 +1880,141 @@
       <c r="C42" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D42" s="6">
-        <f t="shared" ref="D42:D43" si="6">C42-B42</f>
+      <c r="D42" s="16">
+        <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="5">
         <v>0.43055555555555558</v>
       </c>
       <c r="C43" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D43" s="6">
-        <f t="shared" si="6"/>
+      <c r="D43" s="16">
+        <f t="shared" si="0"/>
         <v>4.8611111111111105E-2</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="5">
         <v>0.47916666666666669</v>
       </c>
       <c r="C44" s="5">
         <v>0.5</v>
       </c>
-      <c r="D44" s="6">
-        <f t="shared" ref="D44:D45" si="7">C44-B44</f>
+      <c r="D44" s="16">
+        <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="5">
         <v>0.5</v>
       </c>
       <c r="C45" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D45" s="6">
-        <f t="shared" si="7"/>
+      <c r="D45" s="16">
+        <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="5">
         <v>0.5625</v>
       </c>
       <c r="C46" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D46" s="6">
-        <f t="shared" ref="D46" si="8">C46-B46</f>
+      <c r="D46" s="16">
+        <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="5">
         <v>0.58333333333333337</v>
       </c>
       <c r="C47" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D47" s="6">
-        <f t="shared" ref="D47" si="9">C47-B47</f>
+      <c r="D47" s="16">
+        <f t="shared" si="0"/>
         <v>4.513888888888884E-2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>44691</v>
       </c>
       <c r="B49" s="5">
@@ -1910,207 +2023,207 @@
       <c r="C49" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D49" s="6">
-        <f t="shared" ref="D49" si="10">C49-B49</f>
+      <c r="D49" s="16">
+        <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="5">
         <v>0.36458333333333331</v>
       </c>
       <c r="C50" s="5">
         <v>0.375</v>
       </c>
-      <c r="D50" s="6">
-        <f t="shared" ref="D50" si="11">C50-B50</f>
+      <c r="D50" s="16">
+        <f t="shared" si="0"/>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="5">
         <v>0.375</v>
       </c>
       <c r="C51" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D51" s="6">
-        <f t="shared" ref="D51" si="12">C51-B51</f>
+      <c r="D51" s="16">
+        <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+      <c r="A52" s="6"/>
       <c r="B52" s="5">
         <v>0.40972222222222227</v>
       </c>
       <c r="C52" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D52" s="6">
-        <f t="shared" ref="D52" si="13">C52-B52</f>
+      <c r="D52" s="16">
+        <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="C53" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D53" s="6">
-        <f t="shared" ref="D53:D54" si="14">C53-B53</f>
+      <c r="D53" s="16">
+        <f t="shared" si="0"/>
         <v>7.291666666666663E-2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="5">
         <v>0.48958333333333331</v>
       </c>
       <c r="C54" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D54" s="6">
-        <f t="shared" si="14"/>
+      <c r="D54" s="16">
+        <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="5">
         <v>0.5625</v>
       </c>
       <c r="C55" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D55" s="6">
-        <f t="shared" ref="D55" si="15">C55-B55</f>
+      <c r="D55" s="16">
+        <f t="shared" si="0"/>
         <v>6.597222222222221E-2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="5">
         <v>0.63888888888888895</v>
       </c>
       <c r="C56" s="5">
         <v>0.65625</v>
       </c>
-      <c r="D56" s="6">
-        <f t="shared" ref="D56" si="16">C56-B56</f>
+      <c r="D56" s="16">
+        <f t="shared" si="0"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+      <c r="A57" s="6"/>
       <c r="B57" s="5">
         <v>0.65625</v>
       </c>
       <c r="C57" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D57" s="6">
-        <f t="shared" ref="D57" si="17">C57-B57</f>
+      <c r="D57" s="16">
+        <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>44692</v>
       </c>
       <c r="B59" s="5">
@@ -2119,163 +2232,163 @@
       <c r="C59" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D59" s="6">
-        <f t="shared" ref="D59" si="18">C59-B59</f>
+      <c r="D59" s="16">
+        <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="5">
         <v>0.40972222222222227</v>
       </c>
       <c r="C60" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D60" s="6">
-        <f t="shared" ref="D60" si="19">C60-B60</f>
+      <c r="D60" s="16">
+        <f t="shared" si="0"/>
         <v>7.9861111111111049E-2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+      <c r="A61" s="6"/>
       <c r="B61" s="5">
         <v>0.53125</v>
       </c>
       <c r="C61" s="5">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D61" s="6">
-        <f t="shared" ref="D61" si="20">C61-B61</f>
+      <c r="D61" s="16">
+        <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="5">
         <v>0.55208333333333337</v>
       </c>
       <c r="C62" s="5">
         <v>0.5625</v>
       </c>
-      <c r="D62" s="6">
-        <f t="shared" ref="D62" si="21">C62-B62</f>
+      <c r="D62" s="16">
+        <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="6"/>
       <c r="B63" s="5">
         <v>0.5625</v>
       </c>
       <c r="C63" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D63" s="6">
-        <f t="shared" ref="D63" si="22">C63-B63</f>
+      <c r="D63" s="16">
+        <f t="shared" si="0"/>
         <v>6.597222222222221E-2</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="5">
         <v>0.63888888888888895</v>
       </c>
       <c r="C64" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D64" s="6">
-        <f t="shared" ref="D64" si="23">C64-B64</f>
+      <c r="D64" s="16">
+        <f t="shared" si="0"/>
         <v>3.819444444444442E-2</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+      <c r="A65" s="6"/>
       <c r="B65" s="5">
         <v>0.67708333333333337</v>
       </c>
       <c r="C65" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D65" s="6">
-        <f t="shared" ref="D65" si="24">C65-B65</f>
+      <c r="D65" s="16">
+        <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
+      <c r="A67" s="6">
         <v>44693</v>
       </c>
       <c r="B67" s="5">
@@ -2284,253 +2397,253 @@
       <c r="C67" s="5">
         <v>0.34375</v>
       </c>
-      <c r="D67" s="6">
-        <f t="shared" ref="D67" si="25">C67-B67</f>
+      <c r="D67" s="16">
+        <f t="shared" si="0"/>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="5">
         <v>0.34375</v>
       </c>
       <c r="C68" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D68" s="6">
-        <f t="shared" ref="D68:D69" si="26">C68-B68</f>
+      <c r="D68" s="16">
+        <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="5">
         <v>0.38541666666666669</v>
       </c>
       <c r="C69" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D69" s="6">
-        <f t="shared" si="26"/>
+      <c r="D69" s="16">
+        <f t="shared" si="0"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+      <c r="A70" s="6"/>
       <c r="B70" s="5">
         <v>0.40972222222222227</v>
       </c>
       <c r="C70" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D70" s="6">
-        <f t="shared" ref="D70" si="27">C70-B70</f>
+      <c r="D70" s="16">
+        <f t="shared" ref="D70:D94" si="1">C70-B70</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="5">
         <v>0.4201388888888889</v>
       </c>
       <c r="C71" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D71" s="6">
-        <f t="shared" ref="D71" si="28">C71-B71</f>
+      <c r="D71" s="16">
+        <f t="shared" si="1"/>
         <v>5.902777777777779E-2</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="5">
         <v>0.47916666666666669</v>
       </c>
       <c r="C72" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="D72" s="6">
-        <f t="shared" ref="D72" si="29">C72-B72</f>
+      <c r="D72" s="16">
+        <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+      <c r="A73" s="6"/>
       <c r="B73" s="5">
         <v>0.4826388888888889</v>
       </c>
       <c r="C73" s="5">
         <v>0.5</v>
       </c>
-      <c r="D73" s="6">
-        <f t="shared" ref="D73" si="30">C73-B73</f>
+      <c r="D73" s="16">
+        <f t="shared" si="1"/>
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+      <c r="A74" s="6"/>
       <c r="B74" s="5">
         <v>0.5</v>
       </c>
       <c r="C74" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D74" s="6">
-        <f t="shared" ref="D74" si="31">C74-B74</f>
+      <c r="D74" s="16">
+        <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="6"/>
       <c r="B75" s="5">
         <v>0.5625</v>
       </c>
       <c r="C75" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D75" s="6">
-        <f t="shared" ref="D75" si="32">C75-B75</f>
+      <c r="D75" s="16">
+        <f t="shared" si="1"/>
         <v>6.597222222222221E-2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="5">
         <v>0.63888888888888895</v>
       </c>
       <c r="C76" s="5">
         <v>0.65625</v>
       </c>
-      <c r="D76" s="6">
-        <f t="shared" ref="D76" si="33">C76-B76</f>
+      <c r="D76" s="16">
+        <f t="shared" si="1"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="5">
         <v>0.65625</v>
       </c>
       <c r="C77" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D77" s="6">
-        <f t="shared" ref="D77" si="34">C77-B77</f>
+      <c r="D77" s="16">
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
+      <c r="A79" s="6">
         <v>44697</v>
       </c>
       <c r="B79" s="5">
@@ -2539,157 +2652,157 @@
       <c r="C79" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D79" s="6">
-        <f t="shared" ref="D79" si="35">C79-B79</f>
+      <c r="D79" s="16">
+        <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="A80" s="6"/>
       <c r="B80" s="5">
         <v>0.41666666666666669</v>
       </c>
       <c r="C80" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D80" s="6">
-        <f t="shared" ref="D80" si="36">C80-B80</f>
+      <c r="D80" s="16">
+        <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="5">
         <v>0.43055555555555558</v>
       </c>
       <c r="C81" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D81" s="6">
-        <f t="shared" ref="D81" si="37">C81-B81</f>
+      <c r="D81" s="16">
+        <f t="shared" si="1"/>
         <v>7.9861111111111049E-2</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="A82" s="6"/>
       <c r="B82" s="5">
         <v>0.5625</v>
       </c>
       <c r="C82" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D82" s="6">
-        <f t="shared" ref="D82" si="38">C82-B82</f>
+      <c r="D82" s="16">
+        <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+      <c r="A83" s="6"/>
       <c r="B83" s="5">
         <v>0.57291666666666663</v>
       </c>
       <c r="C83" s="5">
         <v>0.59375</v>
       </c>
-      <c r="D83" s="6">
-        <f t="shared" ref="D83" si="39">C83-B83</f>
+      <c r="D83" s="16">
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="A84" s="6"/>
       <c r="B84" s="5">
         <v>0.59375</v>
       </c>
       <c r="C84" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D84" s="6">
-        <f t="shared" ref="D84:D85" si="40">C84-B84</f>
+      <c r="D84" s="16">
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G84" s="2"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="5">
         <v>0.61458333333333337</v>
       </c>
       <c r="C85" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D85" s="6">
-        <f t="shared" si="40"/>
+      <c r="D85" s="16">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G85" s="2"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="7">
+      <c r="A87" s="6">
         <v>44698</v>
       </c>
       <c r="B87" s="5">
@@ -2698,148 +2811,388 @@
       <c r="C87" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D87" s="6">
-        <f t="shared" ref="D87" si="41">C87-B87</f>
+      <c r="D87" s="16">
+        <f t="shared" si="1"/>
         <v>6.5972222222222265E-2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+      <c r="A88" s="6"/>
       <c r="B88" s="5">
         <v>0.40972222222222227</v>
       </c>
       <c r="C88" s="5">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D88" s="6">
-        <f t="shared" ref="D88" si="42">C88-B88</f>
+      <c r="D88" s="16">
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
+      <c r="A89" s="6"/>
       <c r="B89" s="5">
         <v>0.44097222222222227</v>
       </c>
       <c r="C89" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="D89" s="6">
-        <f t="shared" ref="D89" si="43">C89-B89</f>
+      <c r="D89" s="16">
+        <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G89" s="2"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+      <c r="A90" s="6"/>
       <c r="B90" s="5">
         <v>0.4826388888888889</v>
       </c>
       <c r="C90" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D90" s="6">
-        <f t="shared" ref="D90" si="44">C90-B90</f>
+      <c r="D90" s="16">
+        <f t="shared" si="1"/>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
+      <c r="A91" s="6"/>
       <c r="B91" s="5">
         <v>0.5625</v>
       </c>
       <c r="C91" s="5">
         <v>0.59375</v>
       </c>
-      <c r="D91" s="6">
-        <f t="shared" ref="D91:D93" si="45">C91-B91</f>
+      <c r="D91" s="16">
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+      <c r="A92" s="6"/>
       <c r="B92" s="5">
         <v>0.59375</v>
       </c>
       <c r="C92" s="5">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D92" s="6">
-        <f t="shared" si="45"/>
+      <c r="D92" s="16">
+        <f t="shared" si="1"/>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+      <c r="A93" s="6"/>
       <c r="B93" s="5">
         <v>0.64930555555555558</v>
       </c>
       <c r="C93" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D93" s="6">
-        <f t="shared" ref="D93" si="46">C93-B93</f>
+      <c r="D93" s="16">
+        <f t="shared" si="1"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>44699</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D94" s="16">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="B95" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D95" s="16">
+        <f t="shared" ref="D95" si="2">C95-B95</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="B96" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D96" s="16">
+        <f t="shared" ref="D96" si="3">C96-B96</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="B97" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="D97" s="16">
+        <f t="shared" ref="D97" si="4">C97-B97</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D98" s="16">
+        <f t="shared" ref="D98" si="5">C98-B98</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D99" s="16">
+        <f t="shared" ref="D99" si="6">C99-B99</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D100" s="16">
+        <f t="shared" ref="D100" si="7">C100-B100</f>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="D101" s="16">
+        <f t="shared" ref="D101" si="8">C101-B101</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D102" s="16">
+        <f t="shared" ref="D102" si="9">C102-B102</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D103" s="16">
+        <f t="shared" ref="D103" si="10">C103-B103</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D104" s="16">
+        <f t="shared" ref="D104" si="11">C104-B104</f>
+        <v>3.8194444444444531E-2</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\rapports et jdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\TPI-astronomie\rapports et jdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4ABE4-17E2-4F24-91B2-DC461177FE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -563,15 +564,18 @@
   <si>
     <t>à faire: couleur à changer</t>
   </si>
+  <si>
+    <t>new MLD généré sans table temporaire</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="dd\ mmmm"/>
-    <numFmt numFmtId="168" formatCode="[h]:mm"/>
-    <numFmt numFmtId="169" formatCode="h:mm"/>
+    <numFmt numFmtId="164" formatCode="dd\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm"/>
+    <numFmt numFmtId="166" formatCode="h:mm"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -707,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
@@ -734,17 +738,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1034,56 +1038,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="85.42578125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="85.44140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="11" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="15">
-        <f>SUM(D5:D200)</f>
+      <c r="E2" s="13">
+        <f>SUM(D5:D201)</f>
         <v>2.7534722222222223</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>44683</v>
       </c>
@@ -1116,7 +1120,7 @@
       <c r="C5" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <f>C5-B5</f>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="5">
         <v>0.41666666666666669</v>
@@ -1138,7 +1142,7 @@
       <c r="C6" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <f t="shared" ref="D6:D69" si="0">C6-B6</f>
         <v>9.3749999999999944E-2</v>
       </c>
@@ -1152,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.5625</v>
@@ -1160,7 +1164,7 @@
       <c r="C7" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <f t="shared" si="0"/>
         <v>5.208333333333337E-2</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="5">
         <v>0.61458333333333337</v>
@@ -1182,7 +1186,7 @@
       <c r="C8" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1205,7 +1209,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>44684</v>
       </c>
@@ -1215,7 +1219,7 @@
       <c r="C10" s="5">
         <v>0.375</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="5">
         <v>0.375</v>
@@ -1237,7 +1241,7 @@
       <c r="C11" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.40972222222222227</v>
@@ -1259,7 +1263,7 @@
       <c r="C12" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="5">
         <v>0.4201388888888889</v>
@@ -1281,7 +1285,7 @@
       <c r="C13" s="5">
         <v>0.4375</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <f t="shared" si="0"/>
         <v>1.7361111111111105E-2</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.4375</v>
@@ -1303,7 +1307,7 @@
       <c r="C14" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="14">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1317,7 +1321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
@@ -1325,7 +1329,7 @@
       <c r="C15" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="5">
         <v>0.48958333333333331</v>
@@ -1347,7 +1351,7 @@
       <c r="C16" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1361,7 +1365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.5625</v>
@@ -1369,7 +1373,7 @@
       <c r="C17" s="5">
         <v>0.62152777777777779</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <f t="shared" si="0"/>
         <v>5.902777777777779E-2</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="5">
         <v>0.625</v>
@@ -1391,7 +1395,7 @@
       <c r="C18" s="5">
         <v>0.63194444444444442</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -1405,7 +1409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.63194444444444442</v>
@@ -1413,7 +1417,7 @@
       <c r="C19" s="5">
         <v>0.63541666666666663</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <f t="shared" si="0"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.63541666666666663</v>
@@ -1435,7 +1439,7 @@
       <c r="C20" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="14">
         <f t="shared" si="0"/>
         <v>1.0416666666666741E-2</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="5">
         <v>0.64583333333333337</v>
@@ -1457,7 +1461,7 @@
       <c r="C21" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="5">
         <v>0.66666666666666663</v>
@@ -1479,7 +1483,7 @@
       <c r="C22" s="5">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -1493,7 +1497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1502,7 +1506,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44685</v>
       </c>
@@ -1512,7 +1516,7 @@
       <c r="C24" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -1526,7 +1530,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="5">
         <v>0.40972222222222227</v>
@@ -1534,7 +1538,7 @@
       <c r="C25" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="14">
         <f t="shared" si="0"/>
         <v>1.7361111111111049E-2</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="5">
         <v>0.42708333333333331</v>
@@ -1556,7 +1560,7 @@
       <c r="C26" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="14">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="5">
         <v>0.44791666666666669</v>
@@ -1578,7 +1582,7 @@
       <c r="C27" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="14">
         <f t="shared" si="0"/>
         <v>6.2499999999999944E-2</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.5625</v>
@@ -1600,7 +1604,7 @@
       <c r="C28" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="14">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="5">
         <v>0.57291666666666663</v>
@@ -1622,7 +1626,7 @@
       <c r="C29" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="14">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.60416666666666663</v>
@@ -1644,7 +1648,7 @@
       <c r="C30" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="14">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
@@ -1658,7 +1662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="5">
         <v>0.63888888888888895</v>
@@ -1666,7 +1670,7 @@
       <c r="C31" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="14">
         <f t="shared" si="0"/>
         <v>2.7777777777777679E-2</v>
       </c>
@@ -1680,7 +1684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.66666666666666663</v>
@@ -1688,7 +1692,7 @@
       <c r="C32" s="5">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="14">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -1702,7 +1706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="5">
         <v>0.69791666666666663</v>
@@ -1710,7 +1714,7 @@
       <c r="C33" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="14">
         <f t="shared" si="0"/>
         <v>6.9444444444445308E-3</v>
       </c>
@@ -1722,7 +1726,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1731,7 +1735,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>44686</v>
       </c>
@@ -1741,7 +1745,7 @@
       <c r="C35" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="14">
         <f t="shared" si="0"/>
         <v>6.5972222222222265E-2</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.40972222222222227</v>
@@ -1763,7 +1767,7 @@
       <c r="C36" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="14">
         <f t="shared" si="0"/>
         <v>0.10069444444444436</v>
       </c>
@@ -1775,7 +1779,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="5">
         <v>0.5625</v>
@@ -1783,7 +1787,7 @@
       <c r="C37" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="14">
         <f t="shared" si="0"/>
         <v>4.8611111111111049E-2</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="5">
         <v>0.61111111111111105</v>
@@ -1805,7 +1809,7 @@
       <c r="C38" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="14">
         <f t="shared" si="0"/>
         <v>1.736111111111116E-2</v>
       </c>
@@ -1817,7 +1821,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="5">
         <v>0.63888888888888895</v>
@@ -1825,7 +1829,7 @@
       <c r="C39" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="14">
         <f t="shared" si="0"/>
         <v>3.819444444444442E-2</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.67708333333333337</v>
@@ -1847,7 +1851,7 @@
       <c r="C40" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="14">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
@@ -1859,7 +1863,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>73</v>
       </c>
@@ -1870,7 +1874,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>44690</v>
       </c>
@@ -1880,7 +1884,7 @@
       <c r="C42" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="14">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="5">
         <v>0.43055555555555558</v>
@@ -1902,7 +1906,7 @@
       <c r="C43" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="14">
         <f t="shared" si="0"/>
         <v>4.8611111111111105E-2</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="5">
         <v>0.47916666666666669</v>
@@ -1924,7 +1928,7 @@
       <c r="C44" s="5">
         <v>0.5</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="14">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="5">
         <v>0.5</v>
@@ -1946,7 +1950,7 @@
       <c r="C45" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="14">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="5">
         <v>0.5625</v>
@@ -1968,7 +1972,7 @@
       <c r="C46" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="14">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="5">
         <v>0.58333333333333337</v>
@@ -1990,7 +1994,7 @@
       <c r="C47" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="14">
         <f t="shared" si="0"/>
         <v>4.513888888888884E-2</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2013,7 +2017,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>44691</v>
       </c>
@@ -2023,7 +2027,7 @@
       <c r="C49" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="14">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="5">
         <v>0.36458333333333331</v>
@@ -2045,7 +2049,7 @@
       <c r="C50" s="5">
         <v>0.375</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="14">
         <f t="shared" si="0"/>
         <v>1.0416666666666685E-2</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="5">
         <v>0.375</v>
@@ -2067,7 +2071,7 @@
       <c r="C51" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="14">
         <f t="shared" si="0"/>
         <v>2.430555555555558E-2</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="5">
         <v>0.40972222222222227</v>
@@ -2089,7 +2093,7 @@
       <c r="C52" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="14">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="5">
         <v>0.41666666666666669</v>
@@ -2111,7 +2115,7 @@
       <c r="C53" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="14">
         <f t="shared" si="0"/>
         <v>7.291666666666663E-2</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="5">
         <v>0.48958333333333331</v>
@@ -2133,7 +2137,7 @@
       <c r="C54" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="14">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="5">
         <v>0.5625</v>
@@ -2155,7 +2159,7 @@
       <c r="C55" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="14">
         <f t="shared" si="0"/>
         <v>6.597222222222221E-2</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="5">
         <v>0.63888888888888895</v>
@@ -2177,7 +2181,7 @@
       <c r="C56" s="5">
         <v>0.65625</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="14">
         <f t="shared" si="0"/>
         <v>1.7361111111111049E-2</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="5">
         <v>0.65625</v>
@@ -2199,7 +2203,7 @@
       <c r="C57" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="14">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2222,7 +2226,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>44692</v>
       </c>
@@ -2232,7 +2236,7 @@
       <c r="C59" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="14">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="5">
         <v>0.40972222222222227</v>
@@ -2254,7 +2258,7 @@
       <c r="C60" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="14">
         <f t="shared" si="0"/>
         <v>7.9861111111111049E-2</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="5">
         <v>0.53125</v>
@@ -2276,7 +2280,7 @@
       <c r="C61" s="5">
         <v>0.55208333333333337</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="14">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="5">
         <v>0.55208333333333337</v>
@@ -2298,7 +2302,7 @@
       <c r="C62" s="5">
         <v>0.5625</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="14">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="5">
         <v>0.5625</v>
@@ -2320,7 +2324,7 @@
       <c r="C63" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="14">
         <f t="shared" si="0"/>
         <v>6.597222222222221E-2</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="5">
         <v>0.63888888888888895</v>
@@ -2342,7 +2346,7 @@
       <c r="C64" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="14">
         <f t="shared" si="0"/>
         <v>3.819444444444442E-2</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="5">
         <v>0.67708333333333337</v>
@@ -2364,7 +2368,7 @@
       <c r="C65" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="14">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="10"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2387,7 +2391,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>44693</v>
       </c>
@@ -2397,7 +2401,7 @@
       <c r="C67" s="5">
         <v>0.34375</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="14">
         <f t="shared" si="0"/>
         <v>1.0416666666666685E-2</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="5">
         <v>0.34375</v>
@@ -2419,7 +2423,7 @@
       <c r="C68" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="14">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
@@ -2433,7 +2437,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="5">
         <v>0.38541666666666669</v>
@@ -2441,7 +2445,7 @@
       <c r="C69" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="14">
         <f t="shared" si="0"/>
         <v>1.3888888888888895E-2</v>
       </c>
@@ -2455,7 +2459,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="5">
         <v>0.40972222222222227</v>
@@ -2463,8 +2467,8 @@
       <c r="C70" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D70" s="16">
-        <f t="shared" ref="D70:D94" si="1">C70-B70</f>
+      <c r="D70" s="14">
+        <f t="shared" ref="D70:D95" si="1">C70-B70</f>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2477,7 +2481,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="5">
         <v>0.4201388888888889</v>
@@ -2485,7 +2489,7 @@
       <c r="C71" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="14">
         <f t="shared" si="1"/>
         <v>5.902777777777779E-2</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="5">
         <v>0.47916666666666669</v>
@@ -2507,7 +2511,7 @@
       <c r="C72" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="14">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="5">
         <v>0.4826388888888889</v>
@@ -2529,7 +2533,7 @@
       <c r="C73" s="5">
         <v>0.5</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="14">
         <f t="shared" si="1"/>
         <v>1.7361111111111105E-2</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="5">
         <v>0.5</v>
@@ -2551,7 +2555,7 @@
       <c r="C74" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="14">
         <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="5">
         <v>0.5625</v>
@@ -2573,7 +2577,7 @@
       <c r="C75" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="14">
         <f t="shared" si="1"/>
         <v>6.597222222222221E-2</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="5">
         <v>0.63888888888888895</v>
@@ -2595,7 +2599,7 @@
       <c r="C76" s="5">
         <v>0.65625</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="14">
         <f t="shared" si="1"/>
         <v>1.7361111111111049E-2</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="5">
         <v>0.65625</v>
@@ -2617,7 +2621,7 @@
       <c r="C77" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="14">
         <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
@@ -2631,7 +2635,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>123</v>
       </c>
@@ -2642,7 +2646,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>44697</v>
       </c>
@@ -2652,7 +2656,7 @@
       <c r="C79" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="14">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
@@ -2666,7 +2670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="5">
         <v>0.41666666666666669</v>
@@ -2674,7 +2678,7 @@
       <c r="C80" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="14">
         <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
@@ -2688,7 +2692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="5">
         <v>0.43055555555555558</v>
@@ -2696,7 +2700,7 @@
       <c r="C81" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="14">
         <f t="shared" si="1"/>
         <v>7.9861111111111049E-2</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="5">
         <v>0.5625</v>
@@ -2718,7 +2722,7 @@
       <c r="C82" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="14">
         <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
@@ -2730,7 +2734,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="5">
         <v>0.57291666666666663</v>
@@ -2738,7 +2742,7 @@
       <c r="C83" s="5">
         <v>0.59375</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="14">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="5">
         <v>0.59375</v>
@@ -2760,7 +2764,7 @@
       <c r="C84" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="14">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
@@ -2772,7 +2776,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="5">
         <v>0.61458333333333337</v>
@@ -2780,7 +2784,7 @@
       <c r="C85" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="14">
         <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
@@ -2792,7 +2796,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2801,7 +2805,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>44698</v>
       </c>
@@ -2811,7 +2815,7 @@
       <c r="C87" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="14">
         <f t="shared" si="1"/>
         <v>6.5972222222222265E-2</v>
       </c>
@@ -2823,7 +2827,7 @@
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
       <c r="B88" s="5">
         <v>0.40972222222222227</v>
@@ -2831,7 +2835,7 @@
       <c r="C88" s="5">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="14">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
       <c r="B89" s="5">
         <v>0.44097222222222227</v>
@@ -2853,7 +2857,7 @@
       <c r="C89" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="14">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
@@ -2865,7 +2869,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="5">
         <v>0.4826388888888889</v>
@@ -2873,7 +2877,7 @@
       <c r="C90" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D90" s="16">
+      <c r="D90" s="14">
         <f t="shared" si="1"/>
         <v>2.7777777777777735E-2</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="5">
         <v>0.5625</v>
@@ -2895,7 +2899,7 @@
       <c r="C91" s="5">
         <v>0.59375</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="14">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="5">
         <v>0.59375</v>
@@ -2917,7 +2921,7 @@
       <c r="C92" s="5">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="14">
         <f t="shared" si="1"/>
         <v>5.555555555555558E-2</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="5">
         <v>0.64930555555555558</v>
@@ -2939,179 +2943,170 @@
       <c r="C93" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="14">
         <f t="shared" si="1"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
+      <c r="F93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
         <v>44699</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B95" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C95" s="5">
         <v>0.375</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D95" s="14">
         <f t="shared" si="1"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="E95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C95" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D95" s="16">
-        <f t="shared" ref="D95" si="2">C95-B95</f>
-        <v>1.0416666666666685E-2</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C96" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C96" s="5">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D96" s="16">
-        <f t="shared" ref="D96" si="3">C96-B96</f>
-        <v>1.3888888888888895E-2</v>
+      <c r="D96" s="14">
+        <f t="shared" ref="D96" si="2">C96-B96</f>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C97" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="D97" s="16">
-        <f t="shared" ref="D97" si="4">C97-B97</f>
-        <v>2.7777777777777735E-2</v>
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D97" s="14">
+        <f t="shared" ref="D97" si="3">C97-B97</f>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C98" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C98" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D98" s="16">
-        <f t="shared" ref="D98" si="5">C98-B98</f>
-        <v>4.1666666666666685E-2</v>
+      <c r="D98" s="14">
+        <f t="shared" ref="D98" si="4">C98-B98</f>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
       <c r="B99" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C99" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C99" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D99" s="16">
-        <f t="shared" ref="D99" si="6">C99-B99</f>
-        <v>2.0833333333333315E-2</v>
+      <c r="D99" s="14">
+        <f t="shared" ref="D99" si="5">C99-B99</f>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="5">
         <v>0.47916666666666669</v>
       </c>
       <c r="C100" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D100" s="16">
-        <f t="shared" ref="D100" si="7">C100-B100</f>
-        <v>3.1249999999999944E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="D100" s="14">
+        <f t="shared" ref="D100" si="6">C100-B100</f>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="5">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C101" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="D101" s="16">
-        <f t="shared" ref="D101" si="8">C101-B101</f>
-        <v>3.125E-2</v>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D101" s="14">
+        <f t="shared" ref="D101" si="7">C101-B101</f>
+        <v>3.1249999999999944E-2</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>59</v>
@@ -3120,72 +3115,94 @@
         <v>158</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C102" s="5">
         <v>0.59375</v>
       </c>
-      <c r="C102" s="5">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D102" s="16">
-        <f t="shared" ref="D102" si="9">C102-B102</f>
-        <v>3.472222222222221E-2</v>
+      <c r="D102" s="14">
+        <f t="shared" ref="D102" si="8">C102-B102</f>
+        <v>3.125E-2</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.59375</v>
       </c>
       <c r="C103" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D103" s="16">
-        <f t="shared" ref="D103" si="10">C103-B103</f>
-        <v>2.7777777777777679E-2</v>
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D103" s="14">
+        <f t="shared" ref="D103" si="9">C103-B103</f>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C104" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C104" s="5">
+      <c r="D104" s="14">
+        <f t="shared" ref="D104" si="10">C104-B104</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C105" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D104" s="16">
-        <f t="shared" ref="D104" si="11">C104-B104</f>
+      <c r="D105" s="14">
+        <f t="shared" ref="D105" si="11">C105-B105</f>
         <v>3.8194444444444531E-2</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F104" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>165</v>
       </c>
     </row>

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\TPI-astronomie\rapports et jdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\rapports et jdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4ABE4-17E2-4F24-91B2-DC461177FE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="175">
   <si>
     <t>Date</t>
   </si>
@@ -567,11 +566,35 @@
   <si>
     <t>new MLD généré sans table temporaire</t>
   </si>
+  <si>
+    <t>Mise en forme du formulaire de nouvelle sortie</t>
+  </si>
+  <si>
+    <t>Gestion de la validité des données soumis via le formulaire de nouvelle sortie</t>
+  </si>
+  <si>
+    <t>Code pour l'insertion d'une nouvelle sortie</t>
+  </si>
+  <si>
+    <t>gestion des données invalides à affiner</t>
+  </si>
+  <si>
+    <t>Réussite</t>
+  </si>
+  <si>
+    <t>Relecture et ajout du MLD final</t>
+  </si>
+  <si>
+    <t>Ajout d'un message de réussite lors du login</t>
+  </si>
+  <si>
+    <t>Lorem ipsum a enlevé des pages et refaire des capture</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\ mmmm"/>
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
@@ -1038,31 +1061,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="85.44140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="3"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
@@ -1073,7 +1096,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>147</v>
       </c>
@@ -1081,13 +1104,13 @@
       <c r="D2" s="17"/>
       <c r="E2" s="13">
         <f>SUM(D5:D201)</f>
-        <v>2.7534722222222223</v>
+        <v>3.0624999999999996</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44683</v>
       </c>
@@ -1134,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="5">
         <v>0.41666666666666669</v>
@@ -1156,7 +1179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.5625</v>
@@ -1178,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5">
         <v>0.61458333333333337</v>
@@ -1200,7 +1223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1209,7 +1232,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44684</v>
       </c>
@@ -1233,7 +1256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5">
         <v>0.375</v>
@@ -1255,7 +1278,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.40972222222222227</v>
@@ -1277,7 +1300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="5">
         <v>0.4201388888888889</v>
@@ -1299,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.4375</v>
@@ -1321,7 +1344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.45833333333333331</v>
@@ -1343,7 +1366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="5">
         <v>0.48958333333333331</v>
@@ -1365,7 +1388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.5625</v>
@@ -1387,7 +1410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5">
         <v>0.625</v>
@@ -1409,7 +1432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.63194444444444442</v>
@@ -1431,7 +1454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.63541666666666663</v>
@@ -1453,7 +1476,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="5">
         <v>0.64583333333333337</v>
@@ -1475,7 +1498,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="5">
         <v>0.66666666666666663</v>
@@ -1497,7 +1520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1506,7 +1529,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>44685</v>
       </c>
@@ -1530,7 +1553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="5">
         <v>0.40972222222222227</v>
@@ -1552,7 +1575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="5">
         <v>0.42708333333333331</v>
@@ -1574,7 +1597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5">
         <v>0.44791666666666669</v>
@@ -1596,7 +1619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.5625</v>
@@ -1618,7 +1641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="5">
         <v>0.57291666666666663</v>
@@ -1640,7 +1663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.60416666666666663</v>
@@ -1662,7 +1685,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="5">
         <v>0.63888888888888895</v>
@@ -1684,7 +1707,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.66666666666666663</v>
@@ -1706,7 +1729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="5">
         <v>0.69791666666666663</v>
@@ -1726,7 +1749,7 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1735,7 +1758,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>44686</v>
       </c>
@@ -1759,7 +1782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="5">
         <v>0.40972222222222227</v>
@@ -1779,7 +1802,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="5">
         <v>0.5625</v>
@@ -1801,7 +1824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="5">
         <v>0.61111111111111105</v>
@@ -1821,7 +1844,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="5">
         <v>0.63888888888888895</v>
@@ -1843,7 +1866,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.67708333333333337</v>
@@ -1863,7 +1886,7 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>73</v>
       </c>
@@ -1874,7 +1897,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>44690</v>
       </c>
@@ -1898,7 +1921,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="5">
         <v>0.43055555555555558</v>
@@ -1920,7 +1943,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="5">
         <v>0.47916666666666669</v>
@@ -1942,7 +1965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="5">
         <v>0.5</v>
@@ -1964,7 +1987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="5">
         <v>0.5625</v>
@@ -1986,7 +2009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="5">
         <v>0.58333333333333337</v>
@@ -2008,7 +2031,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2017,7 +2040,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>44691</v>
       </c>
@@ -2041,7 +2064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="5">
         <v>0.36458333333333331</v>
@@ -2063,7 +2086,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="5">
         <v>0.375</v>
@@ -2085,7 +2108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="5">
         <v>0.40972222222222227</v>
@@ -2107,7 +2130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="5">
         <v>0.41666666666666669</v>
@@ -2129,7 +2152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="5">
         <v>0.48958333333333331</v>
@@ -2151,7 +2174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="5">
         <v>0.5625</v>
@@ -2173,7 +2196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="5">
         <v>0.63888888888888895</v>
@@ -2195,7 +2218,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="5">
         <v>0.65625</v>
@@ -2217,7 +2240,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2226,7 +2249,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>44692</v>
       </c>
@@ -2250,7 +2273,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="5">
         <v>0.40972222222222227</v>
@@ -2272,7 +2295,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="5">
         <v>0.53125</v>
@@ -2294,7 +2317,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="5">
         <v>0.55208333333333337</v>
@@ -2316,7 +2339,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="5">
         <v>0.5625</v>
@@ -2338,7 +2361,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="5">
         <v>0.63888888888888895</v>
@@ -2360,7 +2383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="5">
         <v>0.67708333333333337</v>
@@ -2382,7 +2405,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2391,7 +2414,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
-    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>44693</v>
       </c>
@@ -2415,7 +2438,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="5">
         <v>0.34375</v>
@@ -2437,7 +2460,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="5">
         <v>0.38541666666666669</v>
@@ -2459,7 +2482,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="5">
         <v>0.40972222222222227</v>
@@ -2481,7 +2504,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="5">
         <v>0.4201388888888889</v>
@@ -2503,7 +2526,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="5">
         <v>0.47916666666666669</v>
@@ -2525,7 +2548,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="5">
         <v>0.4826388888888889</v>
@@ -2547,7 +2570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="5">
         <v>0.5</v>
@@ -2569,7 +2592,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="5">
         <v>0.5625</v>
@@ -2591,7 +2614,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="5">
         <v>0.63888888888888895</v>
@@ -2613,7 +2636,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="5">
         <v>0.65625</v>
@@ -2635,7 +2658,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>123</v>
       </c>
@@ -2646,7 +2669,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>44697</v>
       </c>
@@ -2670,7 +2693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="5">
         <v>0.41666666666666669</v>
@@ -2692,7 +2715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="5">
         <v>0.43055555555555558</v>
@@ -2714,7 +2737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="5">
         <v>0.5625</v>
@@ -2734,7 +2757,7 @@
       </c>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="5">
         <v>0.57291666666666663</v>
@@ -2756,7 +2779,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="5">
         <v>0.59375</v>
@@ -2776,7 +2799,7 @@
       </c>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="5">
         <v>0.61458333333333337</v>
@@ -2796,7 +2819,7 @@
       </c>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2805,7 +2828,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>44698</v>
       </c>
@@ -2825,9 +2848,11 @@
       <c r="F87" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G87" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="5">
         <v>0.40972222222222227</v>
@@ -2849,7 +2874,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="5">
         <v>0.44097222222222227</v>
@@ -2869,7 +2894,7 @@
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="5">
         <v>0.4826388888888889</v>
@@ -2891,7 +2916,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="5">
         <v>0.5625</v>
@@ -2913,7 +2938,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="5">
         <v>0.59375</v>
@@ -2935,7 +2960,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="5">
         <v>0.64930555555555558</v>
@@ -2957,7 +2982,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2966,7 +2991,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>44699</v>
       </c>
@@ -2988,7 +3013,7 @@
       </c>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="5">
         <v>0.375</v>
@@ -3010,7 +3035,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="5">
         <v>0.38541666666666669</v>
@@ -3032,7 +3057,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="5">
         <v>0.40972222222222227</v>
@@ -3054,7 +3079,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="5">
         <v>0.4375</v>
@@ -3076,7 +3101,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="5">
         <v>0.47916666666666669</v>
@@ -3096,7 +3121,7 @@
       </c>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="5">
         <v>0.47916666666666669</v>
@@ -3118,7 +3143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="5">
         <v>0.5625</v>
@@ -3140,7 +3165,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="5">
         <v>0.59375</v>
@@ -3162,7 +3187,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="5">
         <v>0.63888888888888895</v>
@@ -3184,7 +3209,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="5">
         <v>0.66666666666666663</v>
@@ -3193,7 +3218,7 @@
         <v>0.70486111111111116</v>
       </c>
       <c r="D105" s="14">
-        <f t="shared" ref="D105" si="11">C105-B105</f>
+        <f t="shared" ref="D105:D107" si="11">C105-B105</f>
         <v>3.8194444444444531E-2</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -3204,6 +3229,165 @@
       </c>
       <c r="G105" s="2" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>44700</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D107" s="14">
+        <f t="shared" si="11"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="B108" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C108" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D108" s="14">
+        <f t="shared" ref="D108" si="12">C108-B108</f>
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C109" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D109" s="14">
+        <f t="shared" ref="D109" si="13">C109-B109</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D110" s="14">
+        <f t="shared" ref="D110" si="14">C110-B110</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D111" s="14">
+        <f t="shared" ref="D111" si="15">C111-B111</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C112" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D112" s="14">
+        <f t="shared" ref="D112" si="16">C112-B112</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="B113" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D113" s="14">
+        <f t="shared" ref="D113" si="17">C113-B113</f>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\rapports et jdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\TPI-astronomie\rapports et jdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2B81A7-ED7E-4A69-BCE6-E9D5C4001033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="190">
   <si>
     <t>Date</t>
   </si>
@@ -249,9 +250,6 @@
     <t>Création de la page de login</t>
   </si>
   <si>
-    <t>login fonctionnel mais réussite pas visible / mise en forme de la page à améliorer</t>
-  </si>
-  <si>
     <t>Rédaction du dossier de projet et envoi des documents</t>
   </si>
   <si>
@@ -276,9 +274,6 @@
     <t>Gestion des messages d'erreurs à terminer</t>
   </si>
   <si>
-    <t>Gestion erreurs login form</t>
-  </si>
-  <si>
     <t>Extraction données csv</t>
   </si>
   <si>
@@ -297,9 +292,6 @@
     <t>Recherche et ajout d'un logo au header</t>
   </si>
   <si>
-    <t>Terminé</t>
-  </si>
-  <si>
     <t>Faire des tests plus précis pour la recherche dans la liste</t>
   </si>
   <si>
@@ -432,16 +424,10 @@
     <t>Ajout de sources</t>
   </si>
   <si>
-    <t>Modification des scripts liées qui manipule les données</t>
-  </si>
-  <si>
     <t>script bat créé</t>
   </si>
   <si>
     <t>model: implémentation de la fonction pour récupérer les données des objets célestes</t>
-  </si>
-  <si>
-    <t>Recherche sur des templates de tableau</t>
   </si>
   <si>
     <t>page web du catalogue de Messier</t>
@@ -590,11 +576,71 @@
   <si>
     <t>Lorem ipsum a enlevé des pages et refaire des capture</t>
   </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation </t>
+  </si>
+  <si>
+    <t>Page avec la liste des sorties</t>
+  </si>
+  <si>
+    <t>Formulaire d'inscription à une sortie</t>
+  </si>
+  <si>
+    <t>ajouter des entrées dans la db pour tester et ajuster la mise en forme</t>
+  </si>
+  <si>
+    <t>Inscription à une sortie</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Test des validateurs pour chaque champs du form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dossier de projet et jdt </t>
+  </si>
+  <si>
+    <t>Test du login</t>
+  </si>
+  <si>
+    <t>mise en forme de la page à améliorer</t>
+  </si>
+  <si>
+    <t>login fonctionnel mais réussite pas visible</t>
+  </si>
+  <si>
+    <t>Gestion du login</t>
+  </si>
+  <si>
+    <t>Test de données erronnées dans le form</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Feature terminée</t>
+  </si>
+  <si>
+    <t>Modification des scripts qui manipule les données</t>
+  </si>
+  <si>
+    <t>Recherche de templates de tableau</t>
+  </si>
+  <si>
+    <t>ajout du temps de test sur le jdt à terminer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\ mmmm"/>
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
@@ -655,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,12 +721,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00CCFF"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -718,12 +770,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -755,9 +881,6 @@
     <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -775,6 +898,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,2339 +1205,2555 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="85.42578125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="61.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="85.44140625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="18.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="11" max="16384" width="11.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="13">
-        <f>SUM(D5:D201)</f>
-        <v>3.0624999999999996</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="12">
+        <f>SUM(D6:D204)</f>
+        <v>3.2291666666666647</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>44683</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B6" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C6" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D5" s="14">
-        <f>C5-B5</f>
+      <c r="D6" s="13">
+        <f>C6-B6</f>
         <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" ref="D6:D69" si="0">C6-B6</f>
-        <v>9.3749999999999944E-2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
-        <v>0.5625</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C7" s="5">
-        <v>0.61458333333333337</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" ref="D7:D73" si="0">C7-B7</f>
+        <v>9.3749999999999944E-2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>44684</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>0.375</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D11" s="14">
-        <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.375</v>
       </c>
       <c r="C12" s="5">
-        <v>0.4201388888888889</v>
-      </c>
-      <c r="D12" s="14">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C13" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="D13" s="14">
-        <f t="shared" si="0"/>
-        <v>1.7361111111111105E-2</v>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C14" s="5">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="14">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C15" s="5">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D16" s="14">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
-        <v>0.5625</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C17" s="5">
-        <v>0.62152777777777779</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" si="0"/>
-        <v>5.902777777777779E-2</v>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="5">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="C18" s="5">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="5">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C19" s="5">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C20" s="5">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C20" s="5">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666741E-2</v>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C21" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D21" s="14">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.6875</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="13">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>44685</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="13">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D25" s="14">
-        <f t="shared" si="0"/>
-        <v>1.7361111111111049E-2</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C26" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C26" s="5">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="D26" s="14">
-        <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C27" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C27" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D27" s="14">
-        <f t="shared" si="0"/>
-        <v>6.2499999999999944E-2</v>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
-        <v>0.5625</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C28" s="5">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="D28" s="14">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C29" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C29" s="5">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D29" s="14">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C30" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C30" s="5">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D30" s="14">
-        <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C31" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D31" s="14">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777679E-2</v>
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C32" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C32" s="5">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="D32" s="14">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C33" s="5">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="5">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C34" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="13">
         <f t="shared" si="0"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>44686</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B36" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C36" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="13">
         <f t="shared" si="0"/>
         <v>6.5972222222222265E-2</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="5">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="C36" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D36" s="14">
-        <f t="shared" si="0"/>
-        <v>0.10069444444444436</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="5">
-        <v>0.5625</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C37" s="5">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D37" s="14">
-        <f t="shared" si="0"/>
-        <v>4.8611111111111049E-2</v>
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.10069444444444436</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C38" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="C38" s="5">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D38" s="14">
-        <f t="shared" si="0"/>
-        <v>1.736111111111116E-2</v>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C39" s="5">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="D39" s="14">
-        <f t="shared" si="0"/>
-        <v>3.819444444444442E-2</v>
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D39" s="13">
+        <f t="shared" si="0"/>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C41" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D41" s="13">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C42" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D42" s="13">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>44690</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B44" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C44" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D44" s="13">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D43" s="14">
-        <f t="shared" si="0"/>
-        <v>4.8611111111111105E-2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="14">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="5">
-        <v>0.5</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C45" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D45" s="14">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D45" s="13">
+        <f t="shared" si="0"/>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="5">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C46" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D46" s="14">
-        <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D47" s="13">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C49" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C47" s="5">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D47" s="14">
-        <f t="shared" si="0"/>
-        <v>4.513888888888884E-2</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>44691</v>
-      </c>
-      <c r="B49" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="D49" s="14">
-        <f t="shared" si="0"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="5">
-        <v>0.36458333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C50" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="D50" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D50" s="13">
+        <f t="shared" si="0"/>
+        <v>4.513888888888884E-2</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D51" s="14">
-        <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>44691</v>
+      </c>
       <c r="B52" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C52" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D52" s="14">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D52" s="13">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="5">
-        <v>0.41666666666666669</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C53" s="5">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D53" s="14">
-        <f t="shared" si="0"/>
-        <v>7.291666666666663E-2</v>
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="5">
-        <v>0.48958333333333331</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="C54" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D54" s="14">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>0.375</v>
+      </c>
+      <c r="D54" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="5">
-        <v>0.5625</v>
+        <v>0.375</v>
       </c>
       <c r="C55" s="5">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D55" s="14">
-        <f t="shared" si="0"/>
-        <v>6.597222222222221E-2</v>
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D55" s="13">
+        <f t="shared" si="0"/>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C56" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="D56" s="14">
-        <f t="shared" si="0"/>
-        <v>1.7361111111111049E-2</v>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D56" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="5">
-        <v>0.65625</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C57" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D57" s="14">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D57" s="13">
+        <f t="shared" si="0"/>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>44692</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="5">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
       <c r="B59" s="5">
-        <v>0.35416666666666669</v>
+        <v>0.5625</v>
       </c>
       <c r="C59" s="5">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D59" s="14">
-        <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D59" s="13">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C60" s="5">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D60" s="14">
-        <f t="shared" si="0"/>
-        <v>7.9861111111111049E-2</v>
+        <v>0.65625</v>
+      </c>
+      <c r="D60" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="5">
-        <v>0.53125</v>
+        <v>0.65625</v>
       </c>
       <c r="C61" s="5">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="D61" s="14">
-        <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D61" s="13">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="5">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="D62" s="14">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>44692</v>
+      </c>
       <c r="B63" s="5">
-        <v>0.5625</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="C63" s="5">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D63" s="14">
-        <f t="shared" si="0"/>
-        <v>6.597222222222221E-2</v>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D63" s="13">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C64" s="5">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="D64" s="14">
-        <f t="shared" si="0"/>
-        <v>3.819444444444442E-2</v>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D64" s="13">
+        <f t="shared" si="0"/>
+        <v>7.9861111111111049E-2</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="5">
-        <v>0.67708333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="C65" s="5">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="D65" s="14">
-        <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D65" s="13">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>44693</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="D66" s="13">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
       <c r="B67" s="5">
-        <v>0.33333333333333331</v>
+        <v>0.5625</v>
       </c>
       <c r="C67" s="5">
-        <v>0.34375</v>
-      </c>
-      <c r="D67" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D67" s="13">
+        <f t="shared" si="0"/>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="5">
-        <v>0.34375</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C68" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D68" s="14">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D68" s="13">
+        <f t="shared" si="0"/>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D69" s="13">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="10"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="D71" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="C72" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C69" s="5">
+      <c r="D72" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C73" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D73" s="13">
         <f t="shared" si="0"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="5">
+      <c r="E73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C74" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="D70" s="14">
-        <f t="shared" ref="D70:D95" si="1">C70-B70</f>
+      <c r="D74" s="13">
+        <f t="shared" ref="D74:D99" si="1">C74-B74</f>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="5">
+      <c r="E74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C75" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D75" s="13">
         <f t="shared" si="1"/>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="5">
+      <c r="E75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C76" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D76" s="13">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="5">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C77" s="5">
         <v>0.5</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D77" s="13">
         <f t="shared" si="1"/>
         <v>1.7361111111111105E-2</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="5">
+      <c r="E77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5">
         <v>0.5</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C78" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D78" s="13">
         <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="5">
+      <c r="F78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C79" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D79" s="13">
         <f t="shared" si="1"/>
         <v>6.597222222222221E-2</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="5">
+      <c r="F79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="5">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C80" s="5">
         <v>0.65625</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D80" s="13">
         <f t="shared" si="1"/>
         <v>1.7361111111111049E-2</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="5">
+      <c r="E80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="5">
         <v>0.65625</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C81" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D81" s="13">
         <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
+      <c r="F81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
         <v>44697</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B83" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C83" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D83" s="13">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G79" s="2" t="s">
+      <c r="E83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="5">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C84" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D84" s="13">
         <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="5">
+      <c r="F84" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C85" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D85" s="13">
         <f t="shared" si="1"/>
         <v>7.9861111111111049E-2</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G81" s="2" t="s">
+      <c r="E85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="5">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C86" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D86" s="13">
         <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="5">
+      <c r="F86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C87" s="5">
         <v>0.59375</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D87" s="13">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="5">
+      <c r="E87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="5">
         <v>0.59375</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C88" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D88" s="13">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="5">
+      <c r="E88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C89" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D89" s="13">
         <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="6">
+      <c r="F89" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
         <v>44698</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B91" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C91" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D91" s="13">
         <f t="shared" si="1"/>
         <v>6.5972222222222265E-2</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="E91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="5">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C92" s="5">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D92" s="13">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="5">
+      <c r="F92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="5">
         <v>0.44097222222222227</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C93" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D93" s="13">
         <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="5">
+      <c r="F93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C94" s="5">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D94" s="13">
         <f t="shared" si="1"/>
         <v>2.7777777777777735E-2</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="5">
+      <c r="E94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C95" s="5">
         <v>0.59375</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D95" s="13">
         <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="5">
+      <c r="E95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="5">
         <v>0.59375</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C96" s="5">
         <v>0.64930555555555558</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D96" s="13">
         <f t="shared" si="1"/>
         <v>5.555555555555558E-2</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="5">
+      <c r="E96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="5">
         <v>0.64930555555555558</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C97" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D97" s="13">
         <f t="shared" si="1"/>
         <v>1.7361111111111049E-2</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
+      <c r="F97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
         <v>44699</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B99" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C99" s="5">
         <v>0.375</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D99" s="13">
         <f t="shared" si="1"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C96" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D96" s="14">
-        <f t="shared" ref="D96" si="2">C96-B96</f>
-        <v>1.0416666666666685E-2</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="C97" s="5">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D97" s="14">
-        <f t="shared" ref="D97" si="3">C97-B97</f>
-        <v>1.3888888888888895E-2</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="5">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="C98" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="D98" s="14">
-        <f t="shared" ref="D98" si="4">C98-B98</f>
-        <v>2.7777777777777735E-2</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="C99" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D99" s="14">
-        <f t="shared" ref="D99" si="5">C99-B99</f>
-        <v>4.1666666666666685E-2</v>
-      </c>
       <c r="E99" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="C100" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D100" s="14">
-        <f t="shared" ref="D100" si="6">C100-B100</f>
-        <v>2.0833333333333315E-2</v>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D100" s="13">
+        <f t="shared" ref="D100" si="2">C100-B100</f>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C101" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D101" s="14">
-        <f t="shared" ref="D101" si="7">C101-B101</f>
-        <v>3.1249999999999944E-2</v>
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D101" s="13">
+        <f t="shared" ref="D101" si="3">C101-B101</f>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="5">
-        <v>0.5625</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C102" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="D102" s="14">
-        <f t="shared" ref="D102" si="8">C102-B102</f>
-        <v>3.125E-2</v>
+        <v>0.4375</v>
+      </c>
+      <c r="D102" s="13">
+        <f t="shared" ref="D102" si="4">C102-B102</f>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="5">
-        <v>0.59375</v>
+        <v>0.4375</v>
       </c>
       <c r="C103" s="5">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D103" s="14">
-        <f t="shared" ref="D103" si="9">C103-B103</f>
-        <v>3.472222222222221E-2</v>
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D103" s="13">
+        <f t="shared" ref="D103" si="5">C103-B103</f>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C104" s="5">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D104" s="14">
-        <f t="shared" ref="D104" si="10">C104-B104</f>
-        <v>2.7777777777777679E-2</v>
+        <v>0.5</v>
+      </c>
+      <c r="D104" s="13">
+        <f t="shared" ref="D104" si="6">C104-B104</f>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D105" s="13">
+        <f t="shared" ref="D105" si="7">C105-B105</f>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C106" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="D106" s="13">
+        <f t="shared" ref="D106" si="8">C106-B106</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="C107" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D107" s="13">
+        <f t="shared" ref="D107" si="9">C107-B107</f>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C108" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C105" s="5">
+      <c r="D108" s="13">
+        <f t="shared" ref="D108" si="10">C108-B108</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C109" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D105" s="14">
-        <f t="shared" ref="D105:D107" si="11">C105-B105</f>
+      <c r="D109" s="13">
+        <f t="shared" ref="D109:D111" si="11">C109-B109</f>
         <v>3.8194444444444531E-2</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
+      <c r="E109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
         <v>44700</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B111" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C111" s="5">
         <v>0.375</v>
       </c>
-      <c r="D107" s="14">
+      <c r="D111" s="13">
         <f t="shared" si="11"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C108" s="5">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="D108" s="14">
-        <f t="shared" ref="D108" si="12">C108-B108</f>
-        <v>0.1076388888888889</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="5">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="C109" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D109" s="14">
-        <f t="shared" ref="D109" si="13">C109-B109</f>
-        <v>2.7777777777777735E-2</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="6"/>
-      <c r="B110" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="C110" s="5">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D110" s="14">
-        <f t="shared" ref="D110" si="14">C110-B110</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="6"/>
-      <c r="B111" s="5">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C111" s="5">
-        <v>0.62847222222222221</v>
-      </c>
-      <c r="D111" s="14">
-        <f t="shared" ref="D111" si="15">C111-B111</f>
-        <v>2.430555555555558E-2</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.375</v>
       </c>
       <c r="C112" s="5">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="D112" s="14">
-        <f t="shared" ref="D112" si="16">C112-B112</f>
-        <v>2.0833333333333259E-2</v>
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D112" s="13">
+        <f t="shared" ref="D112" si="12">C112-B112</f>
+        <v>0.1076388888888889</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C113" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D113" s="13">
+        <f t="shared" ref="D113" si="13">C113-B113</f>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="6"/>
+      <c r="B114" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C114" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D114" s="13">
+        <f t="shared" ref="D114" si="14">C114-B114</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C115" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D115" s="13">
+        <f t="shared" ref="D115" si="15">C115-B115</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C116" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C113" s="5">
+      <c r="D116" s="13">
+        <f t="shared" ref="D116" si="16">C116-B116</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C117" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D113" s="14">
-        <f t="shared" ref="D113" si="17">C113-B113</f>
+      <c r="D117" s="13">
+        <f t="shared" ref="D117" si="17">C117-B117</f>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
+        <v>44704</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D119" s="13">
+        <f t="shared" ref="D119" si="18">C119-B119</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D120" s="13">
+        <f t="shared" ref="D120" si="19">C120-B120</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D121" s="13">
+        <f t="shared" ref="D121" si="20">C121-B121</f>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="6"/>
+      <c r="B122" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D122" s="13">
+        <f t="shared" ref="D122" si="21">C122-B122</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C123" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D123" s="13">
+        <f t="shared" ref="D123" si="22">C123-B123</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C124" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D124" s="13">
+        <f t="shared" ref="D124" si="23">C124-B124</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A118:G118"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A82:G82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\TPI-astronomie\rapports et jdt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\rapports et jdt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2B81A7-ED7E-4A69-BCE6-E9D5C4001033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -455,9 +454,6 @@
   </si>
   <si>
     <t>Modification du style du tableau</t>
-  </si>
-  <si>
-    <t>le fichier CSS datatables a été téléchargé en local</t>
   </si>
   <si>
     <r>
@@ -636,11 +632,65 @@
   <si>
     <t>ajout du temps de test sur le jdt à terminer</t>
   </si>
+  <si>
+    <t>Implémenation</t>
+  </si>
+  <si>
+    <t>Fichier de reatauration de la base de  données</t>
+  </si>
+  <si>
+    <t>fichier créé sous /data/dump</t>
+  </si>
+  <si>
+    <t>Fonctionnalité: Inscription à une sortie</t>
+  </si>
+  <si>
+    <t>Review du sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dossier de projet </t>
+  </si>
+  <si>
+    <t>données user: tous les champs obligatoires = ok / procédure d'install add hébergement / pas de vers. Imprimée pour cdp --&gt; 2 suffises</t>
+  </si>
+  <si>
+    <t>le fichier CSS datatables a été téléchargé en local / page terminée</t>
+  </si>
+  <si>
+    <t>Mise en forme du tableau des sortie</t>
+  </si>
+  <si>
+    <t>message d'erreur à afficher</t>
+  </si>
+  <si>
+    <t>Gestion des messages d'erreur pour l'inscription</t>
+  </si>
+  <si>
+    <t>message s d'erreur passer en template à part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en ligne du site </t>
+  </si>
+  <si>
+    <t>bdd à mettre en ligne</t>
+  </si>
+  <si>
+    <t>Gestion des exception: tables inexistantes</t>
+  </si>
+  <si>
+    <t>Questions à la cdp sur les exceptions</t>
+  </si>
+  <si>
+    <t>exceptions globales = ok OU exc. Précises mais une à une --&gt; read the doc --&gt; pas assez de temps ?</t>
+  </si>
+  <si>
+    <t>Gestion des exceptions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\ mmmm"/>
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
@@ -890,14 +940,8 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -908,6 +952,15 @@
     <xf numFmtId="16" fontId="3" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -916,9 +969,6 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,90 +1255,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="61.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="85.44140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="18.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="18" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="3"/>
+    <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="12">
         <f>SUM(D6:D204)</f>
-        <v>3.2291666666666647</v>
+        <v>3.4895833333333308</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44683</v>
       </c>
@@ -1312,7 +1362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5">
         <v>0.41666666666666669</v>
@@ -1334,7 +1384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5">
         <v>0.5625</v>
@@ -1356,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
         <v>0.61458333333333337</v>
@@ -1378,7 +1428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1387,7 +1437,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>44684</v>
       </c>
@@ -1411,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>0.375</v>
@@ -1433,7 +1483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="5">
         <v>0.40972222222222227</v>
@@ -1455,7 +1505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
         <v>0.4201388888888889</v>
@@ -1477,7 +1527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
         <v>0.4375</v>
@@ -1499,7 +1549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="5">
         <v>0.45833333333333331</v>
@@ -1521,7 +1571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
         <v>0.48958333333333331</v>
@@ -1543,7 +1593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5">
         <v>0.5625</v>
@@ -1565,7 +1615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
         <v>0.625</v>
@@ -1587,7 +1637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
         <v>0.63194444444444442</v>
@@ -1609,7 +1659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="5">
         <v>0.63541666666666663</v>
@@ -1631,7 +1681,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="5">
         <v>0.64583333333333337</v>
@@ -1653,7 +1703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="5">
         <v>0.66666666666666663</v>
@@ -1675,7 +1725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1684,7 +1734,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>44685</v>
       </c>
@@ -1708,7 +1758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="5">
         <v>0.40972222222222227</v>
@@ -1730,7 +1780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5">
         <v>0.42708333333333331</v>
@@ -1752,7 +1802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
         <v>0.44791666666666669</v>
@@ -1774,7 +1824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="5">
         <v>0.5625</v>
@@ -1796,7 +1846,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
         <v>0.57291666666666663</v>
@@ -1818,7 +1868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="5">
         <v>0.60416666666666663</v>
@@ -1840,7 +1890,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
         <v>0.63888888888888895</v>
@@ -1862,7 +1912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="5">
         <v>0.66666666666666663</v>
@@ -1884,7 +1934,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
         <v>0.69791666666666663</v>
@@ -1904,7 +1954,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1913,7 +1963,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>44686</v>
       </c>
@@ -1937,7 +1987,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="5">
         <v>0.40972222222222227</v>
@@ -1957,7 +2007,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="5">
         <v>0.5625</v>
@@ -1979,7 +2029,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="5">
         <v>0.61111111111111105</v>
@@ -1999,7 +2049,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
         <v>0.63888888888888895</v>
@@ -2018,10 +2068,10 @@
         <v>70</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="5">
         <v>0.65625</v>
@@ -2034,16 +2084,16 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="5">
         <v>0.67708333333333337</v>
@@ -2063,18 +2113,18 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>44690</v>
       </c>
@@ -2098,7 +2148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="5">
         <v>0.43055555555555558</v>
@@ -2120,7 +2170,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="5">
         <v>0.47916666666666669</v>
@@ -2142,7 +2192,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="5">
         <v>0.5</v>
@@ -2158,13 +2208,13 @@
         <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="5">
         <v>0.5625</v>
@@ -2180,11 +2230,11 @@
         <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="5">
         <v>0.57291666666666663</v>
@@ -2197,16 +2247,16 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="5">
         <v>0.58333333333333337</v>
@@ -2228,7 +2278,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2237,7 +2287,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>44691</v>
       </c>
@@ -2259,7 +2309,7 @@
       </c>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="5">
         <v>0.35416666666666669</v>
@@ -2272,16 +2322,16 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="5">
         <v>0.36458333333333331</v>
@@ -2303,7 +2353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="5">
         <v>0.375</v>
@@ -2325,7 +2375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="5">
         <v>0.40972222222222227</v>
@@ -2347,7 +2397,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="5">
         <v>0.41666666666666669</v>
@@ -2369,7 +2419,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="5">
         <v>0.48958333333333331</v>
@@ -2391,7 +2441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="5">
         <v>0.5625</v>
@@ -2413,7 +2463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="5">
         <v>0.63888888888888895</v>
@@ -2435,7 +2485,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="5">
         <v>0.65625</v>
@@ -2457,7 +2507,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2466,7 +2516,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>44692</v>
       </c>
@@ -2490,7 +2540,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="5">
         <v>0.40972222222222227</v>
@@ -2512,7 +2562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="5">
         <v>0.53125</v>
@@ -2534,7 +2584,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="5">
         <v>0.55208333333333337</v>
@@ -2556,7 +2606,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="5">
         <v>0.5625</v>
@@ -2578,7 +2628,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="5">
         <v>0.63888888888888895</v>
@@ -2600,7 +2650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="5">
         <v>0.67708333333333337</v>
@@ -2622,7 +2672,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2631,7 +2681,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>44693</v>
       </c>
@@ -2655,7 +2705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="5">
         <v>0.34375</v>
@@ -2677,7 +2727,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="5">
         <v>0.38541666666666669</v>
@@ -2699,7 +2749,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="5">
         <v>0.40972222222222227</v>
@@ -2721,7 +2771,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="5">
         <v>0.4201388888888889</v>
@@ -2743,7 +2793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="5">
         <v>0.47916666666666669</v>
@@ -2765,7 +2815,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="5">
         <v>0.4826388888888889</v>
@@ -2787,7 +2837,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="5">
         <v>0.5</v>
@@ -2809,7 +2859,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="5">
         <v>0.5625</v>
@@ -2831,7 +2881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="5">
         <v>0.63888888888888895</v>
@@ -2853,7 +2903,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="5">
         <v>0.65625</v>
@@ -2875,18 +2925,18 @@
         <v>119</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="17" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>44697</v>
       </c>
@@ -2910,7 +2960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="5">
         <v>0.41666666666666669</v>
@@ -2932,7 +2982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="5">
         <v>0.43055555555555558</v>
@@ -2954,7 +3004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="5">
         <v>0.5625</v>
@@ -2974,7 +3024,7 @@
       </c>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="5">
         <v>0.57291666666666663</v>
@@ -2990,13 +3040,13 @@
         <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="5">
         <v>0.59375</v>
@@ -3016,7 +3066,7 @@
       </c>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="5">
         <v>0.61458333333333337</v>
@@ -3032,11 +3082,11 @@
         <v>9</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -3045,7 +3095,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="9"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>44698</v>
       </c>
@@ -3069,7 +3119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="5">
         <v>0.40972222222222227</v>
@@ -3091,7 +3141,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="5">
         <v>0.44097222222222227</v>
@@ -3111,7 +3161,7 @@
       </c>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="5">
         <v>0.4826388888888889</v>
@@ -3133,7 +3183,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="5">
         <v>0.5625</v>
@@ -3155,7 +3205,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="5">
         <v>0.59375</v>
@@ -3174,10 +3224,10 @@
         <v>139</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="5">
         <v>0.64930555555555558</v>
@@ -3196,10 +3246,10 @@
         <v>91</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -3208,7 +3258,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>44699</v>
       </c>
@@ -3226,11 +3276,11 @@
         <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="5">
         <v>0.375</v>
@@ -3246,13 +3296,13 @@
         <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="5">
         <v>0.38541666666666669</v>
@@ -3268,13 +3318,13 @@
         <v>9</v>
       </c>
       <c r="F101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="5">
         <v>0.40972222222222227</v>
@@ -3290,13 +3340,13 @@
         <v>9</v>
       </c>
       <c r="F102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="5">
         <v>0.4375</v>
@@ -3312,13 +3362,13 @@
         <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="5">
         <v>0.47916666666666669</v>
@@ -3334,11 +3384,11 @@
         <v>59</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="5">
         <v>0.47916666666666669</v>
@@ -3354,13 +3404,13 @@
         <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="5">
         <v>0.5625</v>
@@ -3376,13 +3426,13 @@
         <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="5">
         <v>0.59375</v>
@@ -3398,13 +3448,13 @@
         <v>9</v>
       </c>
       <c r="F107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G107" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="5">
         <v>0.63888888888888895</v>
@@ -3420,13 +3470,13 @@
         <v>59</v>
       </c>
       <c r="F108" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G108" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="5">
         <v>0.66666666666666663</v>
@@ -3442,13 +3492,13 @@
         <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -3457,7 +3507,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>44700</v>
       </c>
@@ -3475,11 +3525,11 @@
         <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G111" s="2"/>
     </row>
-    <row r="112" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="5">
         <v>0.375</v>
@@ -3495,11 +3545,11 @@
         <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="5">
         <v>0.4826388888888889</v>
@@ -3515,13 +3565,13 @@
         <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="5">
         <v>0.5625</v>
@@ -3537,13 +3587,13 @@
         <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="5">
         <v>0.60416666666666663</v>
@@ -3562,10 +3612,10 @@
         <v>91</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="5">
         <v>0.63888888888888895</v>
@@ -3581,11 +3631,11 @@
         <v>59</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="5">
         <v>0.65972222222222221</v>
@@ -3604,21 +3654,21 @@
         <v>91</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="17"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>44704</v>
       </c>
@@ -3633,14 +3683,14 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G119" s="2"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="5">
         <v>0.4513888888888889</v>
@@ -3656,13 +3706,13 @@
         <v>59</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="5">
         <v>0.47916666666666669</v>
@@ -3678,11 +3728,11 @@
         <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G121" s="2"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="5">
         <v>0.5625</v>
@@ -3698,13 +3748,13 @@
         <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="5">
         <v>0.60416666666666663</v>
@@ -3717,14 +3767,14 @@
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="E123" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F123" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="G123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="5">
         <v>0.61458333333333337</v>
@@ -3740,10 +3790,275 @@
         <v>17</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G124" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="7"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>44705</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C126" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="D126" s="13">
+        <f t="shared" ref="D126" si="24">C126-B126</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>189</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="B127" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="D127" s="13">
+        <f t="shared" ref="D127" si="25">C127-B127</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="B128" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C128" s="5">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D128" s="13">
+        <f t="shared" ref="D128" si="26">C128-B128</f>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C129" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D129" s="13">
+        <f t="shared" ref="D129" si="27">C129-B129</f>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="D130" s="13">
+        <f t="shared" ref="D130" si="28">C130-B130</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+      <c r="B131" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D131" s="13">
+        <f t="shared" ref="D131" si="29">C131-B131</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="B132" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C132" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D132" s="13">
+        <f t="shared" ref="D132" si="30">C132-B132</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="B133" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C133" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D133" s="13">
+        <f t="shared" ref="D133" si="31">C133-B133</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
+      <c r="B134" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C134" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D134" s="13">
+        <f t="shared" ref="D134" si="32">C134-B134</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+      <c r="B135" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C135" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D135" s="13">
+        <f t="shared" ref="D135" si="33">C135-B135</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="6"/>
+      <c r="B136" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C136" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="D136" s="13">
+        <f t="shared" ref="D136" si="34">C136-B136</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+      <c r="B137" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C137" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D137" s="13">
+        <f t="shared" ref="D137" si="35">C137-B137</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/rapports et jdt/JdT_nithujan.xlsx
+++ b/rapports et jdt/JdT_nithujan.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc104386000" localSheetId="0">Feuil1!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -228,9 +231,6 @@
     <t xml:space="preserve">mise à jour du jdt </t>
   </si>
   <si>
-    <t>Création de la pgae d'acceuil</t>
-  </si>
-  <si>
     <t>à faire: ajouter bouton login (aussi sur maquette) + contenu = lorem ipsum ???</t>
   </si>
   <si>
@@ -322,9 +322,6 @@
   </si>
   <si>
     <t>fichier csv erroné: m45 n'a pas de n° ngc --&gt; son nom commun a été pris --&gt; modif. csv ??</t>
-  </si>
-  <si>
-    <t>Création du script permettant de remplir la table celestiabl_object</t>
   </si>
   <si>
     <t>Téléchargement d'images pour la bdd</t>
@@ -686,6 +683,24 @@
   <si>
     <t>Gestion des exceptions</t>
   </si>
+  <si>
+    <t>Docstrings et génération de docs html</t>
+  </si>
+  <si>
+    <t>Mise en ligne du site</t>
+  </si>
+  <si>
+    <t>si les cookies sont désactivées impossible d'ouvrir une session admin</t>
+  </si>
+  <si>
+    <t>Création de la page d'acceuil</t>
+  </si>
+  <si>
+    <t>Création du script permettant de remplir la table celestial_object</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
 </sst>
 </file>
 
@@ -696,7 +711,7 @@
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,6 +764,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -899,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -942,6 +963,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1259,10 +1283,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,948 +1303,929 @@
     <col min="11" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>141</v>
-      </c>
+      <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
-      <c r="E2" s="12">
-        <f>SUM(D6:D204)</f>
-        <v>3.4895833333333308</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="12">
+        <f>SUM(D7:D205)</f>
+        <v>3.7187499999999973</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>44683</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B7" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C7" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D6" s="13">
-        <f>C6-B6</f>
+      <c r="D7" s="13">
+        <f>C7-B7</f>
         <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D7" s="13">
-        <f t="shared" ref="D7:D73" si="0">C7-B7</f>
-        <v>9.3749999999999944E-2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5">
-        <v>0.5625</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C8" s="5">
-        <v>0.61458333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="0"/>
-        <v>5.208333333333337E-2</v>
+        <f t="shared" ref="D8:D74" si="0">C8-B8</f>
+        <v>9.3749999999999944E-2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>44684</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>0.375</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.39930555555555558</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.375</v>
       </c>
       <c r="C13" s="5">
-        <v>0.4201388888888889</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C14" s="5">
-        <v>0.4375</v>
-      </c>
       <c r="D14" s="13">
         <f t="shared" si="0"/>
-        <v>1.7361111111111105E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C15" s="5">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="D15" s="13">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C16" s="5">
-        <v>0.48958333333333331</v>
-      </c>
       <c r="D16" s="13">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C17" s="5">
-        <v>0.51041666666666663</v>
-      </c>
       <c r="D17" s="13">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5">
-        <v>0.5625</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C18" s="5">
-        <v>0.62152777777777779</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="0"/>
-        <v>5.902777777777779E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="5">
-        <v>0.625</v>
+        <v>0.5625</v>
       </c>
       <c r="C19" s="5">
-        <v>0.63194444444444442</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="5">
         <v>0.63194444444444442</v>
       </c>
-      <c r="C20" s="5">
-        <v>0.63541666666666663</v>
-      </c>
       <c r="D20" s="13">
         <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C21" s="5">
         <v>0.63541666666666663</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.64583333333333337</v>
-      </c>
       <c r="D21" s="13">
         <f t="shared" si="0"/>
-        <v>1.0416666666666741E-2</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C22" s="5">
-        <v>0.66666666666666663</v>
-      </c>
       <c r="D22" s="13">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C24" s="5">
         <v>0.6875</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>44685</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B26" s="5">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D26" s="13">
-        <f t="shared" si="0"/>
-        <v>1.7361111111111049E-2</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C27" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C27" s="5">
-        <v>0.44791666666666669</v>
-      </c>
       <c r="D27" s="13">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C28" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C28" s="5">
-        <v>0.51041666666666663</v>
-      </c>
       <c r="D28" s="13">
         <f t="shared" si="0"/>
-        <v>6.2499999999999944E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="5">
-        <v>0.5625</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="C29" s="5">
-        <v>0.57291666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>6.2499999999999944E-2</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C30" s="5">
-        <v>0.60416666666666663</v>
-      </c>
       <c r="D30" s="13">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C31" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C31" s="5">
-        <v>0.62847222222222221</v>
-      </c>
       <c r="D31" s="13">
         <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C32" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="0"/>
-        <v>2.7777777777777679E-2</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C33" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C33" s="5">
-        <v>0.69791666666666663</v>
-      </c>
       <c r="D33" s="13">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C34" s="5">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="5">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C35" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <f t="shared" si="0"/>
         <v>6.9444444444445308E-3</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="10"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>44686</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B37" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <f t="shared" si="0"/>
         <v>6.5972222222222265E-2</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D37" s="13">
-        <f t="shared" si="0"/>
-        <v>0.10069444444444436</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="5">
-        <v>0.5625</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C38" s="5">
-        <v>0.61111111111111105</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D38" s="13">
         <f t="shared" si="0"/>
-        <v>4.8611111111111049E-2</v>
+        <v>0.10069444444444436</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C39" s="5">
         <v>0.61111111111111105</v>
       </c>
-      <c r="C39" s="5">
-        <v>0.62847222222222221</v>
-      </c>
       <c r="D39" s="13">
         <f t="shared" si="0"/>
-        <v>1.736111111111116E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C40" s="5">
-        <v>0.65625</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>1.7361111111111049E-2</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>180</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C41" s="5">
         <v>0.65625</v>
       </c>
-      <c r="C41" s="5">
-        <v>0.67708333333333337</v>
-      </c>
       <c r="D41" s="13">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C42" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C42" s="5">
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C43" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
         <v>44690</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B45" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C45" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <f t="shared" si="0"/>
         <v>2.0833333333333315E-2</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D45" s="13">
-        <f t="shared" si="0"/>
-        <v>4.8611111111111105E-2</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C46" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C46" s="5">
-        <v>0.5</v>
-      </c>
       <c r="D46" s="13">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C47" s="5">
         <v>0.5</v>
       </c>
-      <c r="C47" s="5">
-        <v>0.51041666666666663</v>
-      </c>
       <c r="D47" s="13">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="5">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C48" s="5">
-        <v>0.57291666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D48" s="13">
         <f t="shared" si="0"/>
@@ -2230,162 +2235,162 @@
         <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C49" s="5">
         <v>0.57291666666666663</v>
       </c>
-      <c r="C49" s="5">
-        <v>0.58333333333333337</v>
-      </c>
       <c r="D49" s="13">
         <f t="shared" si="0"/>
-        <v>1.0416666666666741E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C50" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C50" s="5">
-        <v>0.62847222222222221</v>
-      </c>
       <c r="D50" s="13">
         <f t="shared" si="0"/>
-        <v>4.513888888888884E-2</v>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" si="0"/>
+        <v>4.513888888888884E-2</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="A52" s="10"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
         <v>44691</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B53" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C53" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <f t="shared" si="0"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="D53" s="13">
-        <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>185</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C54" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C54" s="5">
-        <v>0.375</v>
-      </c>
       <c r="D54" s="13">
         <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C55" s="5">
         <v>0.375</v>
       </c>
-      <c r="C55" s="5">
-        <v>0.39930555555555558</v>
-      </c>
       <c r="D55" s="13">
         <f t="shared" si="0"/>
-        <v>2.430555555555558E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.375</v>
       </c>
       <c r="C56" s="5">
-        <v>0.41666666666666669</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="D56" s="13">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
@@ -2394,665 +2399,665 @@
         <v>57</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C57" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C57" s="5">
-        <v>0.48958333333333331</v>
-      </c>
       <c r="D57" s="13">
         <f t="shared" si="0"/>
-        <v>7.291666666666663E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C58" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C58" s="5">
-        <v>0.51041666666666663</v>
-      </c>
       <c r="D58" s="13">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="5">
-        <v>0.5625</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C59" s="5">
-        <v>0.62847222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D59" s="13">
         <f t="shared" si="0"/>
-        <v>6.597222222222221E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.5625</v>
       </c>
       <c r="C60" s="5">
-        <v>0.65625</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D60" s="13">
         <f t="shared" si="0"/>
-        <v>1.7361111111111049E-2</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C61" s="5">
         <v>0.65625</v>
       </c>
-      <c r="C61" s="5">
+      <c r="D61" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C62" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="13">
         <f t="shared" si="0"/>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G61" s="2" t="s">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>44692</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D64" s="13">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>44692</v>
-      </c>
-      <c r="B63" s="5">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C63" s="5">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D63" s="13">
-        <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="5">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="C64" s="5">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D64" s="13">
-        <f t="shared" si="0"/>
-        <v>7.9861111111111049E-2</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="5">
-        <v>0.53125</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C65" s="5">
-        <v>0.55208333333333337</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D65" s="13">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>7.9861111111111049E-2</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="C66" s="5">
         <v>0.55208333333333337</v>
       </c>
-      <c r="C66" s="5">
-        <v>0.5625</v>
-      </c>
       <c r="D66" s="13">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C67" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C67" s="5">
-        <v>0.62847222222222221</v>
-      </c>
       <c r="D67" s="13">
         <f t="shared" si="0"/>
-        <v>6.597222222222221E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.5625</v>
       </c>
       <c r="C68" s="5">
-        <v>0.67708333333333337</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D68" s="13">
         <f t="shared" si="0"/>
-        <v>3.819444444444442E-2</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C69" s="5">
         <v>0.67708333333333337</v>
       </c>
-      <c r="C69" s="5">
+      <c r="D69" s="13">
+        <f t="shared" si="0"/>
+        <v>3.819444444444442E-2</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="B70" s="5">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C70" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="13">
         <f t="shared" si="0"/>
         <v>2.777777777777779E-2</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>44693</v>
+      </c>
+      <c r="B72" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="D72" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>44693</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0.34375</v>
-      </c>
-      <c r="D71" s="13">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="5">
-        <v>0.34375</v>
-      </c>
-      <c r="C72" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D72" s="13">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="C73" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C73" s="5">
-        <v>0.39930555555555558</v>
-      </c>
       <c r="D73" s="13">
         <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C74" s="5">
-        <v>0.4201388888888889</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="D74" s="13">
-        <f t="shared" ref="D74:D99" si="1">C74-B74</f>
-        <v>1.041666666666663E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C75" s="5">
         <v>0.4201388888888889</v>
       </c>
-      <c r="C75" s="5">
+      <c r="D75" s="13">
+        <f t="shared" ref="D75:D100" si="1">C75-B75</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="B76" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="C76" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="13">
         <f t="shared" si="1"/>
         <v>5.902777777777779E-2</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="5">
+      <c r="E76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C77" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <f t="shared" si="1"/>
         <v>3.4722222222222099E-3</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="5">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="C77" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D77" s="13">
-        <f t="shared" si="1"/>
-        <v>1.7361111111111105E-2</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F77" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="5">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C78" s="5">
         <v>0.5</v>
-      </c>
-      <c r="C78" s="5">
-        <v>0.51041666666666663</v>
       </c>
       <c r="D78" s="13">
         <f t="shared" si="1"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="5">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="C79" s="5">
-        <v>0.62847222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D79" s="13">
         <f t="shared" si="1"/>
-        <v>6.597222222222221E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.5625</v>
       </c>
       <c r="C80" s="5">
-        <v>0.65625</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D80" s="13">
         <f t="shared" si="1"/>
-        <v>1.7361111111111049E-2</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C81" s="5">
         <v>0.65625</v>
-      </c>
-      <c r="C81" s="5">
-        <v>0.70486111111111116</v>
       </c>
       <c r="D81" s="13">
         <f t="shared" si="1"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D82" s="13">
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="17"/>
+      <c r="F82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="A83" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="18"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
         <v>44697</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B84" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C84" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="13">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="E84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="5">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C85" s="5">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="5">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="C85" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D85" s="13">
-        <f t="shared" si="1"/>
-        <v>7.9861111111111049E-2</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="5">
-        <v>0.5625</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C86" s="5">
-        <v>0.57291666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D86" s="13">
         <f t="shared" si="1"/>
-        <v>1.041666666666663E-2</v>
+        <v>7.9861111111111049E-2</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G86" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C87" s="5">
         <v>0.57291666666666663</v>
-      </c>
-      <c r="C87" s="5">
-        <v>0.59375</v>
       </c>
       <c r="D87" s="13">
         <f t="shared" si="1"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C88" s="5">
         <v>0.59375</v>
-      </c>
-      <c r="C88" s="5">
-        <v>0.61458333333333337</v>
       </c>
       <c r="D88" s="13">
         <f t="shared" si="1"/>
@@ -3062,331 +3067,333 @@
         <v>59</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="C89" s="5">
         <v>0.61458333333333337</v>
-      </c>
-      <c r="C89" s="5">
-        <v>0.62847222222222221</v>
       </c>
       <c r="D89" s="13">
         <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="B90" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C90" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D90" s="13">
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="F90" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
         <v>44698</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B92" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C92" s="5">
         <v>0.39930555555555558</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D92" s="13">
         <f t="shared" si="1"/>
         <v>6.5972222222222265E-2</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="5">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="C92" s="5">
-        <v>0.44097222222222227</v>
-      </c>
-      <c r="D92" s="13">
-        <f t="shared" si="1"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C93" s="5">
         <v>0.44097222222222227</v>
-      </c>
-      <c r="C93" s="5">
-        <v>0.4826388888888889</v>
       </c>
       <c r="D93" s="13">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G93" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C94" s="5">
         <v>0.4826388888888889</v>
-      </c>
-      <c r="C94" s="5">
-        <v>0.51041666666666663</v>
       </c>
       <c r="D94" s="13">
         <f t="shared" si="1"/>
-        <v>2.7777777777777735E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G94" s="2"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="5">
-        <v>0.5625</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="C95" s="5">
-        <v>0.59375</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D95" s="13">
         <f t="shared" si="1"/>
-        <v>3.125E-2</v>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C96" s="5">
         <v>0.59375</v>
-      </c>
-      <c r="C96" s="5">
-        <v>0.64930555555555558</v>
       </c>
       <c r="D96" s="13">
         <f t="shared" si="1"/>
-        <v>5.555555555555558E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="C97" s="5">
         <v>0.64930555555555558</v>
-      </c>
-      <c r="C97" s="5">
-        <v>0.66666666666666663</v>
       </c>
       <c r="D97" s="13">
         <f t="shared" si="1"/>
+        <v>5.555555555555558E-2</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D98" s="13">
+        <f t="shared" si="1"/>
         <v>1.7361111111111049E-2</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="F98" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="6">
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
         <v>44699</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B100" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C100" s="5">
         <v>0.375</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D100" s="13">
         <f t="shared" si="1"/>
         <v>1.0416666666666685E-2</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C100" s="5">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D100" s="13">
-        <f t="shared" ref="D100" si="2">C100-B100</f>
-        <v>1.0416666666666685E-2</v>
-      </c>
       <c r="E100" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C101" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C101" s="5">
-        <v>0.39930555555555558</v>
-      </c>
       <c r="D101" s="13">
-        <f t="shared" ref="D101" si="3">C101-B101</f>
-        <v>1.3888888888888895E-2</v>
+        <f t="shared" ref="D101" si="2">C101-B101</f>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="C102" s="5">
-        <v>0.4375</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="D102" s="13">
-        <f t="shared" ref="D102" si="4">C102-B102</f>
-        <v>2.7777777777777735E-2</v>
+        <f t="shared" ref="D102" si="3">C102-B102</f>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C103" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C103" s="5">
-        <v>0.47916666666666669</v>
-      </c>
       <c r="D103" s="13">
-        <f t="shared" ref="D103" si="5">C103-B103</f>
-        <v>4.1666666666666685E-2</v>
+        <f t="shared" ref="D103" si="4">C103-B103</f>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="C104" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C104" s="5">
-        <v>0.5</v>
-      </c>
       <c r="D104" s="13">
-        <f t="shared" ref="D104" si="6">C104-B104</f>
-        <v>2.0833333333333315E-2</v>
+        <f t="shared" ref="D104" si="5">C104-B104</f>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G104" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
@@ -3394,681 +3401,816 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C105" s="5">
-        <v>0.51041666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="D105" s="13">
-        <f t="shared" ref="D105" si="7">C105-B105</f>
-        <v>3.1249999999999944E-2</v>
+        <f t="shared" ref="D105" si="6">C105-B105</f>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G105" s="2"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="5">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C106" s="5">
-        <v>0.59375</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D106" s="13">
-        <f t="shared" ref="D106" si="8">C106-B106</f>
-        <v>3.125E-2</v>
+        <f t="shared" ref="D106" si="7">C106-B106</f>
+        <v>3.1249999999999944E-2</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C107" s="5">
         <v>0.59375</v>
       </c>
-      <c r="C107" s="5">
-        <v>0.62847222222222221</v>
-      </c>
       <c r="D107" s="13">
-        <f t="shared" ref="D107" si="9">C107-B107</f>
-        <v>3.472222222222221E-2</v>
+        <f t="shared" ref="D107" si="8">C107-B107</f>
+        <v>3.125E-2</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.59375</v>
       </c>
       <c r="C108" s="5">
-        <v>0.66666666666666663</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D108" s="13">
-        <f t="shared" ref="D108" si="10">C108-B108</f>
-        <v>2.7777777777777679E-2</v>
+        <f t="shared" ref="D108" si="9">C108-B108</f>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C109" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C109" s="5">
+      <c r="D109" s="13">
+        <f t="shared" ref="D109" si="10">C109-B109</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="B110" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C110" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D109" s="13">
-        <f t="shared" ref="D109:D111" si="11">C109-B109</f>
+      <c r="D110" s="13">
+        <f t="shared" ref="D110:D112" si="11">C110-B110</f>
         <v>3.8194444444444531E-2</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="E110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
+      <c r="A111" s="7"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
         <v>44700</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B112" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C112" s="5">
         <v>0.375</v>
       </c>
-      <c r="D111" s="13">
+      <c r="D112" s="13">
         <f t="shared" si="11"/>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C112" s="5">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="D112" s="13">
-        <f t="shared" ref="D112" si="12">C112-B112</f>
-        <v>0.1076388888888889</v>
-      </c>
       <c r="E112" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G112" s="2"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C113" s="5">
         <v>0.4826388888888889</v>
       </c>
-      <c r="C113" s="5">
-        <v>0.51041666666666663</v>
-      </c>
       <c r="D113" s="13">
-        <f t="shared" ref="D113" si="13">C113-B113</f>
-        <v>2.7777777777777735E-2</v>
+        <f t="shared" ref="D113" si="12">C113-B113</f>
+        <v>0.1076388888888889</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="G113" s="2"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="5">
-        <v>0.5625</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="C114" s="5">
-        <v>0.60416666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D114" s="13">
-        <f t="shared" ref="D114" si="14">C114-B114</f>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" ref="D114" si="13">C114-B114</f>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C115" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C115" s="5">
-        <v>0.62847222222222221</v>
-      </c>
       <c r="D115" s="13">
-        <f t="shared" ref="D115" si="15">C115-B115</f>
-        <v>2.430555555555558E-2</v>
+        <f t="shared" ref="D115" si="14">C115-B115</f>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="C116" s="5">
-        <v>0.65972222222222221</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D116" s="13">
-        <f t="shared" ref="D116" si="16">C116-B116</f>
-        <v>2.0833333333333259E-2</v>
+        <f t="shared" ref="D116" si="15">C116-B116</f>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G116" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C117" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="C117" s="5">
+      <c r="D117" s="13">
+        <f t="shared" ref="D117" si="16">C117-B117</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" s="5">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C118" s="5">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D117" s="13">
-        <f t="shared" ref="D117" si="17">C117-B117</f>
+      <c r="D118" s="13">
+        <f t="shared" ref="D118" si="17">C118-B118</f>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
+      <c r="F118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="18"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>44704</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D120" s="13">
+        <f t="shared" ref="D120" si="18">C120-B120</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="17"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
-        <v>44704</v>
-      </c>
-      <c r="B119" s="5">
-        <v>0.40972222222222227</v>
-      </c>
-      <c r="C119" s="5">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="D119" s="13">
-        <f t="shared" ref="D119" si="18">C119-B119</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G119" s="2"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="5">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="C120" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="D120" s="13">
-        <f t="shared" ref="D120" si="19">C120-B120</f>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G120" s="2"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="5">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C121" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C121" s="5">
-        <v>0.51041666666666663</v>
-      </c>
       <c r="D121" s="13">
-        <f t="shared" ref="D121" si="20">C121-B121</f>
-        <v>3.1249999999999944E-2</v>
+        <f t="shared" ref="D121" si="19">C121-B121</f>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G121" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="5">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C122" s="5">
-        <v>0.60416666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D122" s="13">
-        <f t="shared" ref="D122" si="21">C122-B122</f>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" ref="D122" si="20">C122-B122</f>
+        <v>3.1249999999999944E-2</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G122" s="2"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C123" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C123" s="5">
-        <v>0.61458333333333337</v>
-      </c>
       <c r="D123" s="13">
-        <f t="shared" ref="D123" si="22">C123-B123</f>
-        <v>1.0416666666666741E-2</v>
+        <f t="shared" ref="D123" si="21">C123-B123</f>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G123" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="5">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C124" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C124" s="5">
+      <c r="D124" s="13">
+        <f t="shared" ref="D124" si="22">C124-B124</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="B125" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="C125" s="5">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D124" s="13">
-        <f t="shared" ref="D124" si="23">C124-B124</f>
+      <c r="D125" s="13">
+        <f t="shared" ref="D125" si="23">C125-B125</f>
         <v>1.388888888888884E-2</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F124" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G124" s="2" t="s">
+      <c r="F125" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="7"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>44705</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="D127" s="13">
+        <f t="shared" ref="D127" si="24">C127-B127</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="7"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
-        <v>44705</v>
-      </c>
-      <c r="B126" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C126" s="5">
-        <v>0.34375</v>
-      </c>
-      <c r="D126" s="13">
-        <f t="shared" ref="D126" si="24">C126-B126</f>
-        <v>1.0416666666666685E-2</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F126" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="5">
-        <v>0.34375</v>
-      </c>
-      <c r="C127" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="D127" s="13">
-        <f t="shared" ref="D127" si="25">C127-B127</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="C128" s="5">
         <v>0.375</v>
       </c>
-      <c r="C128" s="5">
-        <v>0.39930555555555558</v>
-      </c>
       <c r="D128" s="13">
-        <f t="shared" ref="D128" si="26">C128-B128</f>
-        <v>2.430555555555558E-2</v>
+        <f t="shared" ref="D128" si="25">C128-B128</f>
+        <v>3.125E-2</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="5">
-        <v>0.40972222222222227</v>
+        <v>0.375</v>
       </c>
       <c r="C129" s="5">
-        <v>0.44791666666666669</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="D129" s="13">
-        <f t="shared" ref="D129" si="27">C129-B129</f>
-        <v>3.819444444444442E-2</v>
+        <f t="shared" ref="D129" si="26">C129-B129</f>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G129" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C130" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C130" s="5">
-        <v>0.46875</v>
-      </c>
       <c r="D130" s="13">
-        <f t="shared" ref="D130" si="28">C130-B130</f>
-        <v>2.0833333333333315E-2</v>
+        <f t="shared" ref="D130" si="27">C130-B130</f>
+        <v>3.819444444444442E-2</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G130" s="2"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C131" s="5">
         <v>0.46875</v>
       </c>
-      <c r="C131" s="5">
-        <v>0.51041666666666663</v>
-      </c>
       <c r="D131" s="13">
-        <f t="shared" ref="D131" si="29">C131-B131</f>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" ref="D131" si="28">C131-B131</f>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G131" s="2"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="5">
-        <v>0.5625</v>
+        <v>0.46875</v>
       </c>
       <c r="C132" s="5">
-        <v>0.58333333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="D132" s="13">
-        <f t="shared" ref="D132" si="30">C132-B132</f>
-        <v>2.083333333333337E-2</v>
+        <f t="shared" ref="D132" si="29">C132-B132</f>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C133" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C133" s="5">
-        <v>0.61458333333333337</v>
-      </c>
       <c r="D133" s="13">
-        <f t="shared" ref="D133" si="31">C133-B133</f>
-        <v>3.125E-2</v>
+        <f t="shared" ref="D133" si="30">C133-B133</f>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C134" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="C134" s="5">
-        <v>0.62847222222222221</v>
-      </c>
       <c r="D134" s="13">
-        <f t="shared" ref="D134" si="32">C134-B134</f>
-        <v>1.388888888888884E-2</v>
+        <f t="shared" ref="D134" si="31">C134-B134</f>
+        <v>3.125E-2</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G134" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="5">
-        <v>0.63888888888888895</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="C135" s="5">
-        <v>0.64930555555555558</v>
+        <v>0.62847222222222221</v>
       </c>
       <c r="D135" s="13">
-        <f t="shared" ref="D135" si="33">C135-B135</f>
-        <v>1.041666666666663E-2</v>
+        <f t="shared" ref="D135" si="32">C135-B135</f>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G135" s="2"/>
     </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C136" s="5">
         <v>0.64930555555555558</v>
       </c>
-      <c r="C136" s="5">
-        <v>0.65625</v>
-      </c>
       <c r="D136" s="13">
-        <f t="shared" ref="D136" si="34">C136-B136</f>
-        <v>6.9444444444444198E-3</v>
+        <f t="shared" ref="D136" si="33">C136-B136</f>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="5">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C137" s="5">
         <v>0.65625</v>
       </c>
-      <c r="C137" s="5">
+      <c r="D137" s="13">
+        <f t="shared" ref="D137" si="34">C137-B137</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+      <c r="B138" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="C138" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D137" s="13">
-        <f t="shared" ref="D137" si="35">C137-B137</f>
+      <c r="D138" s="13">
+        <f t="shared" ref="D138" si="35">C138-B138</f>
         <v>1.041666666666663E-2</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F137" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="7"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>44706</v>
+      </c>
+      <c r="B140" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D140" s="13">
+        <f t="shared" ref="D140" si="36">C140-B140</f>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+      <c r="B141" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="D141" s="13">
+        <f t="shared" ref="D141" si="37">C141-B141</f>
+        <v>5.9027777777777735E-2</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F141" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G137" s="2" t="s">
-        <v>33</v>
+      <c r="G141" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="B142" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D142" s="13">
+        <f t="shared" ref="D142" si="38">C142-B142</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+      <c r="B143" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D143" s="13">
+        <f t="shared" ref="D143" si="39">C143-B143</f>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="B144" s="5">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D144" s="13">
+        <f t="shared" ref="D144" si="40">C144-B144</f>
+        <v>2.7777777777777679E-2</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A119:G119"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A83:G83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
